--- a/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>NTAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43854</v>
+      </c>
+      <c r="E7" s="2">
         <v>43763</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43672</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43581</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43490</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43399</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43308</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43217</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43126</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43035</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42944</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42853</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42762</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1404000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1371000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1236000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1592000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1563000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1517000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1474000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1644000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1539000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1415000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1321000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1481000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1404000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>463000</v>
+      </c>
+      <c r="E9" s="3">
         <v>446000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>420000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>564000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>581000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>543000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>511000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>615000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>583000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>515000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>497000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>568000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>553000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>511000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>941000</v>
+      </c>
+      <c r="E10" s="3">
         <v>925000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>816000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1028000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>982000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>974000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>963000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1029000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>956000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>900000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>824000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>913000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>851000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>829000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E12" s="3">
         <v>209000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>215000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>205000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>203000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>211000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>208000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>203000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>193000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>194000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>193000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>191000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>181000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -978,23 +998,23 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>21000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>16000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>19000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1008,13 +1028,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>52000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1136000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1075000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1132000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1222000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1252000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1231000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1220000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1332000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1049000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1199000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1181000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1234000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1221000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1198000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E18" s="3">
         <v>296000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>104000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>370000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>311000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>286000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>254000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>312000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>490000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>216000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>140000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>247000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>183000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E20" s="3">
         <v>15000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>30000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>28000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>24000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>21000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>32000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>31000</v>
       </c>
       <c r="K20" s="3">
         <v>31000</v>
       </c>
       <c r="L20" s="3">
+        <v>31000</v>
+      </c>
+      <c r="M20" s="3">
         <v>23000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>18000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>12000</v>
       </c>
       <c r="P20" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E21" s="3">
         <v>361000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>183000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>446000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>386000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>356000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>335000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>391000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>569000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>290000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>209000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>314000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>251000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E22" s="3">
         <v>12000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>14000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>14000</v>
       </c>
       <c r="I22" s="3">
         <v>14000</v>
       </c>
       <c r="J22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K22" s="3">
         <v>15000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>17000</v>
       </c>
       <c r="L22" s="3">
         <v>17000</v>
       </c>
       <c r="M22" s="3">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N22" s="3">
         <v>13000</v>
       </c>
       <c r="O22" s="3">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P22" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E23" s="3">
         <v>299000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>119000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>384000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>319000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>293000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>272000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>328000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>504000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>222000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>145000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>248000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>183000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>56000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-12000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>70000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>52000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>36000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>127000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>48000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>58000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>37000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E26" s="3">
         <v>243000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>103000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>396000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>249000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>241000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>283000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>292000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>377000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>174000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>131000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>190000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>146000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E27" s="3">
         <v>243000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>103000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>396000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>249000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>241000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>283000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>292000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>377000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>174000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>131000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>190000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>146000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1597,14 +1658,14 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-856000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-15000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-30000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-28000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-24000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-21000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-32000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-31000</v>
       </c>
       <c r="K32" s="3">
         <v>-31000</v>
       </c>
       <c r="L32" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="M32" s="3">
         <v>-23000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-18000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-12000</v>
       </c>
       <c r="P32" s="3">
         <v>-12000</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>-12000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E33" s="3">
         <v>243000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>103000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>396000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>249000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>241000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>283000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>290000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-479000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>174000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>131000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>190000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>146000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E35" s="3">
         <v>243000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>103000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>396000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>249000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>241000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>283000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>290000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-479000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>174000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>131000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>190000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>146000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43854</v>
+      </c>
+      <c r="E38" s="2">
         <v>43763</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43672</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43581</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43490</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43399</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43308</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43217</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43126</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43035</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42944</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42853</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42762</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,295 +2053,314 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2705000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2545000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2967000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2325000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2271000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2359000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2627000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2941000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2974000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3535000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2951000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2444000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2213000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2113000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E42" s="3">
         <v>442000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>565000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1574000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1778000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1940000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2184000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2450000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2645000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2430000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2370000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2477000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2426000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2244000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>821000</v>
+      </c>
+      <c r="E43" s="3">
         <v>780000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>542000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1216000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>872000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>765000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>616000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1047000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>754000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>584000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>518000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>731000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>605000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E44" s="3">
         <v>111000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>116000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>131000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>100000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>86000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>97000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>122000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>98000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>108000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>143000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>163000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>125000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E45" s="3">
         <v>313000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>326000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>364000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>340000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>321000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>329000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>392000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>295000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>363000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>316000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>383000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>277000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>219000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4218000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4191000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4516000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5610000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5361000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5471000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5853000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6952000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6766000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7020000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6298000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6198000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5646000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5220000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>78000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2275,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>882000</v>
+      </c>
+      <c r="E48" s="3">
         <v>889000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>896000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>759000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>763000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>770000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>768000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>756000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>741000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>795000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>799000</v>
       </c>
       <c r="N48" s="3">
         <v>799000</v>
       </c>
       <c r="O48" s="3">
+        <v>799000</v>
+      </c>
+      <c r="P48" s="3">
         <v>892000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>949000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1813000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1821000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1832000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1782000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1798000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1811000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1820000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1833000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1845000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1859000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1825000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1815000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1821000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1834000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>492000</v>
+      </c>
+      <c r="E52" s="3">
         <v>571000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>567000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>590000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>496000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>499000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>464000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>450000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>435000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>634000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>677000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>681000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>696000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>759000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7483000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7472000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7811000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8741000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8418000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8551000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8905000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9991000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9787000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10308000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9599000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9493000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9055000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8762000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,195 +2749,208 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>381000</v>
+      </c>
+      <c r="E57" s="3">
         <v>382000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>348000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>542000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>497000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>472000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>425000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>609000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>458000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>379000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>289000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>347000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>258000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>693000</v>
+      </c>
+      <c r="E58" s="3">
         <v>498000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>430000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>649000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>562000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>648000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>385000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>632000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1468000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1643000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1249000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1140000</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2455000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2324000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2397000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2676000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2371000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2190000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2215000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2537000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2458000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2367000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2355000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2526000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2446000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2275000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3529000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3204000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3175000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3867000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3430000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3310000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2840000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3531000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3548000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4214000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4287000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4122000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3844000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1145000</v>
+        <v>1146000</v>
       </c>
       <c r="E61" s="3">
         <v>1145000</v>
       </c>
       <c r="F61" s="3">
-        <v>1144000</v>
+        <v>1145000</v>
       </c>
       <c r="G61" s="3">
         <v>1144000</v>
@@ -2816,75 +2959,81 @@
         <v>1144000</v>
       </c>
       <c r="I61" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="J61" s="3">
         <v>1542000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1541000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1540000</v>
       </c>
       <c r="L61" s="3">
         <v>1540000</v>
       </c>
       <c r="M61" s="3">
+        <v>1540000</v>
+      </c>
+      <c r="N61" s="3">
         <v>745000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>744000</v>
       </c>
       <c r="O61" s="3">
         <v>744000</v>
       </c>
       <c r="P61" s="3">
+        <v>744000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1492000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2526000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2587000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2628000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2640000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2614000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2567000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2601000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3604000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2523000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1777000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1799000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1847000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1773000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1953000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7201000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6936000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6948000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7651000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7188000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7021000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6983000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7715000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7611000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7531000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6831000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6713000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6361000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5973000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3424,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3277,28 +3451,31 @@
         <v>0</v>
       </c>
       <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
         <v>-9000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-489000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>40000</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>282000</v>
+      </c>
+      <c r="E76" s="3">
         <v>536000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>863000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1090000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1230000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1530000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1922000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2276000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2176000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2777000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2768000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2780000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2694000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2789000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43854</v>
+      </c>
+      <c r="E80" s="2">
         <v>43763</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43672</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43581</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43490</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43399</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43308</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43217</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43126</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43035</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42944</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42853</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42762</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E81" s="3">
         <v>243000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>103000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>396000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>249000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>241000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>283000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>290000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-479000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>174000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>131000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>190000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>146000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E83" s="3">
         <v>50000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>49000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>48000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>51000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>49000</v>
       </c>
       <c r="I83" s="3">
         <v>49000</v>
       </c>
       <c r="J83" s="3">
-        <v>48000</v>
+        <v>49000</v>
       </c>
       <c r="K83" s="3">
         <v>48000</v>
       </c>
       <c r="L83" s="3">
-        <v>51000</v>
+        <v>48000</v>
       </c>
       <c r="M83" s="3">
         <v>51000</v>
       </c>
       <c r="N83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="O83" s="3">
         <v>53000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>56000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>420000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-53000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>310000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>399000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>451000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>165000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>326000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>494000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>420000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>314000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>250000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>365000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>235000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>158000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-36000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-32000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-35000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-31000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-43000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-64000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-48000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-32000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-36000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-45000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E94" s="3">
         <v>178000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>938000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>183000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>140000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>195000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>186000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>120000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-144000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>57000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-87000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-230000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4381,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-111000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-115000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-97000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-99000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-102000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-105000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-53000</v>
       </c>
       <c r="K96" s="3">
         <v>-53000</v>
       </c>
       <c r="L96" s="3">
-        <v>-54000</v>
+        <v>-53000</v>
       </c>
       <c r="M96" s="3">
         <v>-54000</v>
       </c>
       <c r="N96" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-51000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-52000</v>
       </c>
       <c r="P96" s="3">
         <v>-52000</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-52000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-372000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-545000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-603000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-514000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-688000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-617000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-812000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-636000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-951000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>420000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>181000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-51000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>97000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-154000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-13000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-11000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-14000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-11000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>24000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>19000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-422000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>642000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>55000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-89000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-268000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-314000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-33000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-561000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>584000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>507000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>231000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-181000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>NTAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,181 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43945</v>
+      </c>
+      <c r="E7" s="2">
         <v>43854</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43763</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43672</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43581</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43490</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43399</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43308</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43217</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43126</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43035</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42944</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42853</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42762</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1401000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1404000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1371000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1236000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1592000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1563000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1517000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1474000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1644000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1539000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1415000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1321000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1481000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1404000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>460000</v>
+      </c>
+      <c r="E9" s="3">
         <v>463000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>446000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>420000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>564000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>581000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>543000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>511000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>615000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>583000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>515000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>497000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>568000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>553000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>511000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,46 +847,49 @@
         <v>941000</v>
       </c>
       <c r="E10" s="3">
+        <v>941000</v>
+      </c>
+      <c r="F10" s="3">
         <v>925000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>816000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1028000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>982000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>974000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>963000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1029000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>956000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>900000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>824000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>913000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>851000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>829000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E12" s="3">
         <v>211000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>209000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>215000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>205000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>203000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>211000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>208000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>203000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>193000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>194000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>193000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>191000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>181000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,35 +1005,38 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>21000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>16000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>19000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1031,13 +1050,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>52000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1134000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1136000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1075000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1132000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1222000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1252000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1231000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1220000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1332000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1049000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1199000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1181000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1234000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1221000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1198000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E18" s="3">
         <v>268000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>296000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>104000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>370000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>311000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>286000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>254000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>312000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>490000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>216000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>140000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>247000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>183000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>22000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>15000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>30000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>28000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>24000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>21000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>32000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>31000</v>
       </c>
       <c r="L20" s="3">
         <v>31000</v>
       </c>
       <c r="M20" s="3">
+        <v>31000</v>
+      </c>
+      <c r="N20" s="3">
         <v>23000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>18000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>12000</v>
       </c>
       <c r="Q20" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E21" s="3">
         <v>337000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>361000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>183000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>446000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>386000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>356000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>335000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>391000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>569000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>290000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>209000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>314000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>251000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1315,140 +1354,149 @@
         <v>14000</v>
       </c>
       <c r="E22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F22" s="3">
         <v>12000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>14000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>14000</v>
       </c>
       <c r="J22" s="3">
         <v>14000</v>
       </c>
       <c r="K22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="L22" s="3">
         <v>15000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>17000</v>
       </c>
       <c r="M22" s="3">
         <v>17000</v>
       </c>
       <c r="N22" s="3">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O22" s="3">
         <v>13000</v>
       </c>
       <c r="P22" s="3">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q22" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E23" s="3">
         <v>276000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>299000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>119000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>384000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>319000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>293000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>272000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>328000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>504000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>222000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>145000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>248000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>183000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>56000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-12000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>70000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>52000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>127000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>48000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>58000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>37000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E26" s="3">
         <v>277000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>243000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>103000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>396000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>249000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>241000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>283000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>292000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>377000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>174000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>131000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>190000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>146000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E27" s="3">
         <v>277000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>243000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>103000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>396000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>249000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>241000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>283000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>292000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>377000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>174000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>131000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>190000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>146000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1661,14 +1721,14 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3">
         <v>-2000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-856000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-22000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-15000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-30000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-28000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-24000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-21000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-32000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-31000</v>
       </c>
       <c r="L32" s="3">
         <v>-31000</v>
       </c>
       <c r="M32" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-23000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-18000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-12000</v>
       </c>
       <c r="Q32" s="3">
         <v>-12000</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-12000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E33" s="3">
         <v>277000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>243000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>103000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>396000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>249000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>241000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>283000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>290000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-479000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>174000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>131000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>190000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>146000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E35" s="3">
         <v>277000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>243000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>103000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>396000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>249000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>241000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>283000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>290000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-479000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>174000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>131000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>190000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>146000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43945</v>
+      </c>
+      <c r="E38" s="2">
         <v>43854</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43763</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43672</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43581</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43490</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43399</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43308</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43217</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43126</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43035</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42944</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42853</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42762</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,298 +2139,317 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2658000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2705000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2545000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2967000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2325000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2271000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2359000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2627000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2941000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2974000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3535000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2951000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2444000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2213000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2113000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E42" s="3">
         <v>303000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>442000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>565000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1574000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1778000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1940000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2184000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2450000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2645000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2430000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2370000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2477000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2426000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2244000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>973000</v>
+      </c>
+      <c r="E43" s="3">
         <v>821000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>780000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>542000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1216000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>872000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>765000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>616000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1047000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>754000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>584000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>518000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>731000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>605000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E44" s="3">
         <v>113000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>111000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>116000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>131000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>100000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>86000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>97000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>122000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>98000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>108000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>143000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>163000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>125000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E45" s="3">
         <v>276000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>313000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>326000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>364000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>340000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>321000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>329000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>392000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>295000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>363000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>316000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>383000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>277000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>219000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4274000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4218000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4191000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4516000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5610000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5361000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5471000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5853000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6952000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6766000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7020000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6298000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6198000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5646000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5220000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E47" s="3">
         <v>78000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>10</v>
@@ -2362,8 +2466,8 @@
       <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2383,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>864000</v>
+      </c>
+      <c r="E48" s="3">
         <v>882000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>889000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>896000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>759000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>763000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>770000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>768000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>756000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>741000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>795000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>799000</v>
       </c>
       <c r="O48" s="3">
         <v>799000</v>
       </c>
       <c r="P48" s="3">
+        <v>799000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>892000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>949000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1822000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1813000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1821000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1832000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1782000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1798000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1811000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1820000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1833000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1845000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1859000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1825000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1815000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1821000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1834000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>482000</v>
+      </c>
+      <c r="E52" s="3">
         <v>492000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>571000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>567000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>590000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>496000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>499000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>464000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>450000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>435000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>634000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>677000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>681000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>696000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>759000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7522000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7483000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7472000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7811000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8741000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8418000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8551000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8905000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9991000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9787000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10308000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9599000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9493000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9055000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8762000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,196 +2879,209 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>426000</v>
+      </c>
+      <c r="E57" s="3">
         <v>381000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>382000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>348000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>542000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>497000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>472000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>425000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>609000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>458000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>379000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>289000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>347000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>258000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>522000</v>
+      </c>
+      <c r="E58" s="3">
         <v>693000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>498000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>430000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>649000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>562000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>648000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>385000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>632000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1468000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1643000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1249000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1140000</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2668000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2455000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2324000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2397000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2676000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2371000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2190000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2215000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2537000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2458000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2367000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2355000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2526000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2446000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2275000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3616000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3529000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3204000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3175000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3867000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3430000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3310000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2840000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3531000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3548000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4214000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4287000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4122000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3844000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2947,13 +3089,13 @@
         <v>1146000</v>
       </c>
       <c r="E61" s="3">
-        <v>1145000</v>
+        <v>1146000</v>
       </c>
       <c r="F61" s="3">
         <v>1145000</v>
       </c>
       <c r="G61" s="3">
-        <v>1144000</v>
+        <v>1145000</v>
       </c>
       <c r="H61" s="3">
         <v>1144000</v>
@@ -2962,78 +3104,84 @@
         <v>1144000</v>
       </c>
       <c r="J61" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1542000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1541000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1540000</v>
       </c>
       <c r="M61" s="3">
         <v>1540000</v>
       </c>
       <c r="N61" s="3">
+        <v>1540000</v>
+      </c>
+      <c r="O61" s="3">
         <v>745000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>744000</v>
       </c>
       <c r="P61" s="3">
         <v>744000</v>
       </c>
       <c r="Q61" s="3">
+        <v>744000</v>
+      </c>
+      <c r="R61" s="3">
         <v>1492000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2518000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2526000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2587000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2628000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2640000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2614000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2567000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2601000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3604000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2523000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1777000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1799000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1847000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1773000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1953000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7280000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7201000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6936000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6948000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7651000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7188000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7021000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6983000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7715000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7611000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7531000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6831000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6713000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6361000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5973000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3597,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3454,28 +3627,31 @@
         <v>0</v>
       </c>
       <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
         <v>-9000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-489000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>40000</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E76" s="3">
         <v>282000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>536000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>863000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1090000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1230000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1530000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1922000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2276000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2176000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2777000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2768000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2780000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2694000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2789000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43945</v>
+      </c>
+      <c r="E80" s="2">
         <v>43854</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43763</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43672</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43581</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43490</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43399</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43308</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43217</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43126</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43035</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42944</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42853</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42762</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E81" s="3">
         <v>277000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>243000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>103000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>396000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>249000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>241000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>283000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>290000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-479000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>174000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>131000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>190000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>146000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,46 +4034,49 @@
         <v>47000</v>
       </c>
       <c r="E83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="F83" s="3">
         <v>50000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>49000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>48000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>51000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>49000</v>
       </c>
       <c r="J83" s="3">
         <v>49000</v>
       </c>
       <c r="K83" s="3">
-        <v>48000</v>
+        <v>49000</v>
       </c>
       <c r="L83" s="3">
         <v>48000</v>
       </c>
       <c r="M83" s="3">
-        <v>51000</v>
+        <v>48000</v>
       </c>
       <c r="N83" s="3">
         <v>51000</v>
       </c>
       <c r="O83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="P83" s="3">
         <v>53000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>56000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>383000</v>
+      </c>
+      <c r="E89" s="3">
         <v>420000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-53000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>310000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>399000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>451000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>165000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>326000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>494000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>420000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>314000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>250000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>365000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>235000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>158000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-36000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-32000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-35000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-43000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-64000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-48000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-32000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-36000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-38000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E94" s="3">
         <v>111000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>178000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>938000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>183000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>140000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>195000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>186000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>120000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-144000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>57000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-87000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-230000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-108000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-111000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-115000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-97000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-99000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-102000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-105000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-53000</v>
       </c>
       <c r="L96" s="3">
         <v>-53000</v>
       </c>
       <c r="M96" s="3">
-        <v>-54000</v>
+        <v>-53000</v>
       </c>
       <c r="N96" s="3">
         <v>-54000</v>
       </c>
       <c r="O96" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-51000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-52000</v>
       </c>
       <c r="Q96" s="3">
         <v>-52000</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-52000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-440000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-372000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-545000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-603000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-514000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-688000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-617000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-812000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-636000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-951000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>420000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>181000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-51000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>97000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-154000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-13000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-11000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-14000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>24000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>19000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E102" s="3">
         <v>160000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-422000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>642000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>55000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-89000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-268000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-314000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-33000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-561000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>584000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>507000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>231000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-181000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>NTAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43945</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43854</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43763</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43672</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43581</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43490</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43399</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43308</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43217</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43126</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43035</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42944</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42853</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42762</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1303000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1401000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1404000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1371000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1236000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1592000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1563000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1517000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1474000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1644000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1539000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1415000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1321000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1481000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1404000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>431000</v>
+      </c>
+      <c r="E9" s="3">
         <v>460000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>463000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>446000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>420000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>564000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>581000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>543000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>511000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>615000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>583000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>515000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>497000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>568000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>553000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>511000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>941000</v>
+        <v>872000</v>
       </c>
       <c r="E10" s="3">
         <v>941000</v>
       </c>
       <c r="F10" s="3">
+        <v>941000</v>
+      </c>
+      <c r="G10" s="3">
         <v>925000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>816000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1028000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>982000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>974000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>963000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1029000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>956000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>900000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>824000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>913000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>851000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>829000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>233000</v>
+      </c>
+      <c r="E12" s="3">
         <v>212000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>211000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>209000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>215000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>205000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>203000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>211000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>208000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>203000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>193000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>194000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>193000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>191000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>181000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,38 +1025,41 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E14" s="3">
         <v>10000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>21000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>16000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>19000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1053,13 +1073,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>52000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1167000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1134000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1136000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1075000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1132000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1222000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1252000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1231000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1220000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1332000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1049000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1199000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1181000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1234000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1221000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1198000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E18" s="3">
         <v>267000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>268000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>296000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>104000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>370000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>311000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>286000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>254000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>312000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>490000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>216000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>140000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>247000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>183000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>22000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>15000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>30000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>28000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>24000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>21000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>32000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>31000</v>
       </c>
       <c r="M20" s="3">
         <v>31000</v>
       </c>
       <c r="N20" s="3">
+        <v>31000</v>
+      </c>
+      <c r="O20" s="3">
         <v>23000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>18000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>12000</v>
       </c>
       <c r="R20" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E21" s="3">
         <v>311000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>337000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>361000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>183000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>446000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>386000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>356000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>335000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>391000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>569000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>290000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>209000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>314000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>251000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="E22" s="3">
         <v>14000</v>
       </c>
       <c r="F22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G22" s="3">
         <v>12000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>14000</v>
       </c>
       <c r="K22" s="3">
         <v>14000</v>
       </c>
       <c r="L22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="M22" s="3">
         <v>15000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>17000</v>
       </c>
       <c r="N22" s="3">
         <v>17000</v>
       </c>
       <c r="O22" s="3">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P22" s="3">
         <v>13000</v>
       </c>
       <c r="Q22" s="3">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="R22" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E23" s="3">
         <v>250000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>276000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>299000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>119000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>384000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>319000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>293000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>272000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>328000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>504000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>222000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>145000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>248000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>183000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E24" s="3">
         <v>54000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>56000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-12000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>70000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>52000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>127000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>48000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>58000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>37000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E26" s="3">
         <v>196000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>277000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>243000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>103000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>396000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>249000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>241000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>283000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>292000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>377000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>174000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>131000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>190000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>146000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E27" s="3">
         <v>196000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>277000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>243000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>103000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>396000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>249000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>241000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>283000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>292000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>377000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>174000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>131000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>190000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>146000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1724,14 +1785,14 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-856000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-22000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-15000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-30000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-28000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-24000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-21000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-32000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-31000</v>
       </c>
       <c r="M32" s="3">
         <v>-31000</v>
       </c>
       <c r="N32" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-23000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-18000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-12000</v>
       </c>
       <c r="R32" s="3">
         <v>-12000</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>-12000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E33" s="3">
         <v>196000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>277000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>243000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>103000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>396000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>249000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>241000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>283000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>290000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-479000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>174000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>131000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>190000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>146000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E35" s="3">
         <v>196000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>277000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>243000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>103000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>396000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>249000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>241000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>283000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>290000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-479000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>174000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>131000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>190000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>146000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43945</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43854</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43763</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43672</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43581</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43490</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43399</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43308</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43217</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43126</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43035</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42944</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42853</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42762</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,319 +2226,338 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3633000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2658000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2705000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2545000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2967000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2325000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2271000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2359000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2627000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2941000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2974000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3535000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2951000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2444000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2213000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2113000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E42" s="3">
         <v>224000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>303000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>442000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>565000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1574000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1778000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1940000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2184000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2450000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2645000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2430000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2370000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2477000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2426000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2244000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>604000</v>
+      </c>
+      <c r="E43" s="3">
         <v>973000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>821000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>780000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>542000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1216000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>872000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>765000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>616000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1047000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>754000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>584000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>518000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>731000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>605000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E44" s="3">
         <v>145000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>113000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>111000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>116000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>131000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>100000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>86000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>97000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>122000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>98000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>108000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>143000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>163000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>125000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E45" s="3">
         <v>274000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>276000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>313000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>326000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>364000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>340000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>321000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>329000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>392000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>295000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>363000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>316000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>383000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>277000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>219000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4817000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4274000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4218000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4191000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4516000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5610000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5361000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5471000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5853000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6952000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6766000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7020000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6298000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6198000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5646000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5220000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E47" s="3">
         <v>80000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>78000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>10</v>
@@ -2469,8 +2574,8 @@
       <c r="K47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>872000</v>
+      </c>
+      <c r="E48" s="3">
         <v>864000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>882000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>889000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>896000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>759000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>763000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>770000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>768000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>756000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>741000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>795000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>799000</v>
       </c>
       <c r="P48" s="3">
         <v>799000</v>
       </c>
       <c r="Q48" s="3">
+        <v>799000</v>
+      </c>
+      <c r="R48" s="3">
         <v>892000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>949000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2178000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1822000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1813000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1821000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1832000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1782000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1798000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1811000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1820000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1833000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1845000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1859000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1825000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1815000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1821000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1834000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>481000</v>
+      </c>
+      <c r="E52" s="3">
         <v>482000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>492000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>571000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>567000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>590000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>496000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>499000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>464000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>450000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>435000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>634000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>677000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>681000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>696000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>759000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8416000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7522000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7483000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7472000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7811000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8741000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8418000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8551000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8905000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9991000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9787000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10308000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9599000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9493000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9055000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8762000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,225 +3010,238 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>396000</v>
+      </c>
+      <c r="E57" s="3">
         <v>426000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>381000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>382000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>348000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>542000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>497000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>472000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>425000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>609000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>458000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>379000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>289000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>347000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>258000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E58" s="3">
         <v>522000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>693000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>498000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>430000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>649000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>562000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>648000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>385000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>632000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1468000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1643000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1249000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1140000</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2430000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2668000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2455000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2324000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2397000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2676000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2371000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2190000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2215000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2537000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2458000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2367000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2355000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2526000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2446000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2275000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2976000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3616000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3529000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3204000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3175000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3867000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3430000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3310000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2840000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3531000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3548000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4214000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4287000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4122000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3844000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1146000</v>
+        <v>2630000</v>
       </c>
       <c r="E61" s="3">
         <v>1146000</v>
       </c>
       <c r="F61" s="3">
-        <v>1145000</v>
+        <v>1146000</v>
       </c>
       <c r="G61" s="3">
         <v>1145000</v>
       </c>
       <c r="H61" s="3">
-        <v>1144000</v>
+        <v>1145000</v>
       </c>
       <c r="I61" s="3">
         <v>1144000</v>
@@ -3107,81 +3250,87 @@
         <v>1144000</v>
       </c>
       <c r="K61" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="L61" s="3">
         <v>1542000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1541000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>1540000</v>
       </c>
       <c r="N61" s="3">
         <v>1540000</v>
       </c>
       <c r="O61" s="3">
+        <v>1540000</v>
+      </c>
+      <c r="P61" s="3">
         <v>745000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>744000</v>
       </c>
       <c r="Q61" s="3">
         <v>744000</v>
       </c>
       <c r="R61" s="3">
+        <v>744000</v>
+      </c>
+      <c r="S61" s="3">
         <v>1492000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2526000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2518000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2526000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2587000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2628000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2640000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2614000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2567000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2601000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3604000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2523000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1777000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1799000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1847000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1773000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1953000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8132000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7280000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7201000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6936000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6948000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7651000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7188000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7021000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6983000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7715000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7611000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7531000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6831000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6713000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6361000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5973000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3630,28 +3804,31 @@
         <v>0</v>
       </c>
       <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
         <v>-9000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-489000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>40000</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E76" s="3">
         <v>242000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>282000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>536000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>863000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1090000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1230000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1530000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1922000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2276000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2176000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2777000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2768000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2780000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2694000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2789000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43945</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43854</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43763</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43672</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43581</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43490</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43399</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43308</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43217</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43126</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43035</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42944</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42853</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42762</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E81" s="3">
         <v>196000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>277000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>243000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>103000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>396000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>249000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>241000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>283000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>290000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-479000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>174000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>131000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>190000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>146000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>47000</v>
+        <v>49000</v>
       </c>
       <c r="E83" s="3">
         <v>47000</v>
       </c>
       <c r="F83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="G83" s="3">
         <v>50000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>49000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>48000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>51000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>49000</v>
       </c>
       <c r="K83" s="3">
         <v>49000</v>
       </c>
       <c r="L83" s="3">
-        <v>48000</v>
+        <v>49000</v>
       </c>
       <c r="M83" s="3">
         <v>48000</v>
       </c>
       <c r="N83" s="3">
-        <v>51000</v>
+        <v>48000</v>
       </c>
       <c r="O83" s="3">
         <v>51000</v>
       </c>
       <c r="P83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>53000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>56000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E89" s="3">
         <v>383000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>420000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-53000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>310000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>399000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>451000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>165000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>326000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>494000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>420000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>314000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>250000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>365000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>235000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>158000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-24000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-32000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-36000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-32000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-35000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-31000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-43000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-64000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-48000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-29000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-45000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-311000</v>
+      </c>
+      <c r="E94" s="3">
         <v>42000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>111000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>178000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>938000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>183000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>140000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>195000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>186000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>120000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-54000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-144000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>57000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-87000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-230000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-105000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-108000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-111000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-115000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-97000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-99000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-102000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-105000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-53000</v>
       </c>
       <c r="M96" s="3">
         <v>-53000</v>
       </c>
       <c r="N96" s="3">
-        <v>-54000</v>
+        <v>-53000</v>
       </c>
       <c r="O96" s="3">
         <v>-54000</v>
       </c>
       <c r="P96" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-51000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-52000</v>
       </c>
       <c r="R96" s="3">
         <v>-52000</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-52000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1003000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-440000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-372000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-545000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-603000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-514000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-688000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-617000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-812000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-636000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-951000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>420000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>181000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-51000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>97000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-154000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-30000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-13000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-11000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-14000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-11000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>24000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>19000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>975000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-45000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>160000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-422000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>642000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>55000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-89000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-268000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-314000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-33000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-561000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>584000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>507000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>231000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-181000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>NTAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44134</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43945</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43854</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43763</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43672</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43581</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43490</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43399</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43308</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43217</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43126</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43035</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42944</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42853</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42762</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1470000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1416000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1303000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1401000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1404000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1371000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1236000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1592000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1563000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1517000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1474000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1644000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1539000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1415000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1321000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1481000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1404000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>483000</v>
+      </c>
+      <c r="F9" s="3">
         <v>431000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>460000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>463000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>446000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>420000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>564000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>581000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>543000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>511000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>615000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>583000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>515000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>497000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>568000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>553000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>511000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>975000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>933000</v>
+      </c>
+      <c r="F10" s="3">
         <v>872000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>941000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>941000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>925000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>816000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1028000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>982000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>974000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>963000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1029000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>956000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>900000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>824000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>913000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>851000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>829000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +948,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>233000</v>
+        <v>215000</v>
       </c>
       <c r="E12" s="3">
         <v>212000</v>
       </c>
       <c r="F12" s="3">
+        <v>233000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>212000</v>
+      </c>
+      <c r="H12" s="3">
         <v>211000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>209000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>215000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>205000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>203000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>211000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>208000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>203000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>193000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>194000</v>
       </c>
       <c r="P12" s="3">
         <v>193000</v>
       </c>
       <c r="Q12" s="3">
+        <v>194000</v>
+      </c>
+      <c r="R12" s="3">
+        <v>193000</v>
+      </c>
+      <c r="S12" s="3">
         <v>191000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>181000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,44 +1062,50 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>40000</v>
+      </c>
+      <c r="F14" s="3">
         <v>13000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>10000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>21000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>16000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>19000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1076,13 +1116,19 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>52000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1212000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1167000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1134000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1136000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1075000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1132000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1222000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1252000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1231000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1220000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1332000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1049000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1199000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1181000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1234000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1221000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1198000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>182000</v>
+      </c>
+      <c r="F18" s="3">
         <v>136000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>267000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>268000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>296000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>104000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>370000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>311000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>286000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>254000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>312000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>490000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>216000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>140000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>247000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>183000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1345,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-14000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>22000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>15000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>30000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>28000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>24000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>21000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>32000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>31000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>31000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>23000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>18000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>14000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>12000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>249000</v>
+      </c>
+      <c r="F21" s="3">
         <v>171000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>311000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>337000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>361000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>183000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>446000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>386000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>356000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>335000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>391000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>569000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>290000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>209000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>314000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>251000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E22" s="3">
         <v>18000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G22" s="3">
         <v>14000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>14000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>12000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>15000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>14000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>16000</v>
       </c>
       <c r="K22" s="3">
         <v>14000</v>
       </c>
       <c r="L22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="M22" s="3">
         <v>14000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="O22" s="3">
         <v>15000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>17000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>17000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>13000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>13000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>12000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>175000</v>
+      </c>
+      <c r="F23" s="3">
         <v>104000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>250000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>276000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>299000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>119000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>384000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>319000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>293000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>272000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>328000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>504000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>222000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>145000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>248000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>183000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F24" s="3">
         <v>27000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>54000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>56000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>16000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-12000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>70000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>52000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-11000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>36000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>127000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>48000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>14000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>58000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>37000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>137000</v>
+      </c>
+      <c r="F26" s="3">
         <v>77000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>196000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>277000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>243000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>103000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>396000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>249000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>241000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>283000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>292000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>377000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>174000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>131000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>190000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>146000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>137000</v>
+      </c>
+      <c r="F27" s="3">
         <v>77000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>196000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>277000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>243000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>103000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>396000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>249000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>241000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>283000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>292000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>377000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>174000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>131000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>190000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>146000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,17 +1910,17 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-856000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F32" s="3">
         <v>14000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-22000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-15000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-30000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-28000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-24000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-21000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-32000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-31000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-31000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-23000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-14000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-12000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>137000</v>
+      </c>
+      <c r="F33" s="3">
         <v>77000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>196000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>277000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>243000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>103000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>396000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>249000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>241000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>283000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>290000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-479000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>174000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>131000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>190000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>146000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>137000</v>
+      </c>
+      <c r="F35" s="3">
         <v>77000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>196000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>277000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>243000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>103000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>396000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>249000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>241000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>283000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>290000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-479000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>174000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>131000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>190000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>146000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44134</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43945</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43854</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43763</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43672</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43581</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43490</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43399</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43308</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43217</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43126</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43035</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42944</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42853</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42762</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,343 +2399,381 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3808000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3529000</v>
+      </c>
+      <c r="F41" s="3">
         <v>3633000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2658000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2705000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2545000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2967000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2325000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2271000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2359000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2627000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2941000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2974000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3535000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2951000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2444000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2213000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2113000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>117000</v>
+      </c>
+      <c r="F42" s="3">
         <v>140000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>224000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>303000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>442000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>565000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1574000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1778000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1940000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2184000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2450000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>2645000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>2430000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>2370000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>2477000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>2426000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>2244000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>799000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>796000</v>
+      </c>
+      <c r="F43" s="3">
         <v>604000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>973000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>821000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>780000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>542000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1216000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>872000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>765000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>616000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1047000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>754000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>584000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>518000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>731000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>605000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>116000</v>
+      </c>
+      <c r="F44" s="3">
         <v>136000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>145000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>113000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>111000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>116000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>131000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>100000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>86000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>97000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>122000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>98000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>108000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>143000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>163000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>125000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>315000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>263000</v>
+      </c>
+      <c r="F45" s="3">
         <v>304000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>274000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>276000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>313000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>326000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>364000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>340000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>321000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>329000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>392000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>295000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>363000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>316000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>383000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>277000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>219000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5114000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4821000</v>
+      </c>
+      <c r="F46" s="3">
         <v>4817000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4274000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4218000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4191000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4516000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5610000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5361000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5471000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5853000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6952000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6766000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7020000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6298000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6198000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>5646000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>5220000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3">
         <v>68000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>80000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>78000</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>10</v>
@@ -2577,11 +2787,11 @@
       <c r="L47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2598,114 +2808,132 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>851000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>866000</v>
+      </c>
+      <c r="F48" s="3">
         <v>872000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>864000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>882000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>889000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>896000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>759000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>763000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>770000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>768000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>756000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>741000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>795000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>799000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>799000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>892000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>949000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2149000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2164000</v>
+      </c>
+      <c r="F49" s="3">
         <v>2178000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1822000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1813000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1821000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1832000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1782000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1798000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1811000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1820000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1833000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1845000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1859000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1825000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1815000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1821000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1834000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>569000</v>
+      </c>
+      <c r="F52" s="3">
         <v>481000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>482000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>492000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>571000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>567000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>590000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>496000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>499000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>464000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>450000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>435000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>634000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>677000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>681000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>696000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>759000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8686000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8420000</v>
+      </c>
+      <c r="F54" s="3">
         <v>8416000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7522000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7483000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7472000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7811000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8741000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8418000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8551000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8905000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>9991000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9787000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10308000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>9599000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>9493000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>9055000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>8762000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,273 +3271,305 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>367000</v>
+      </c>
+      <c r="F57" s="3">
         <v>396000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>426000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>381000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>382000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>348000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>542000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>497000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>472000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>425000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>609000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>458000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>379000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>289000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>347000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>258000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>150000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>522000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>693000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>498000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>430000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>649000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>562000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>648000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>385000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>632000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1468000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1643000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1249000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1140000</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2714000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2553000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2430000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2668000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2455000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2324000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2397000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2676000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2371000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2190000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2215000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2537000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2458000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2367000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2355000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2526000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2446000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2275000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3050000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2920000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2976000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3616000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3529000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3204000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3175000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3867000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3430000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3310000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2840000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3531000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3548000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4214000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4287000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4122000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3844000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2632000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2631000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2630000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1146000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1146000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1145000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1145000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1144000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1144000</v>
       </c>
       <c r="K61" s="3">
         <v>1144000</v>
       </c>
       <c r="L61" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="M61" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="N61" s="3">
         <v>1542000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1541000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1540000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1540000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>745000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>744000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>744000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1492000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,52 +3577,58 @@
         <v>2526000</v>
       </c>
       <c r="E62" s="3">
-        <v>2518000</v>
+        <v>2499000</v>
       </c>
       <c r="F62" s="3">
         <v>2526000</v>
       </c>
       <c r="G62" s="3">
+        <v>2518000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2526000</v>
+      </c>
+      <c r="I62" s="3">
         <v>2587000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2628000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2640000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2614000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2567000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2601000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3604000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2523000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1777000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1799000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1847000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1773000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1953000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8208000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8050000</v>
+      </c>
+      <c r="F66" s="3">
         <v>8132000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7280000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7201000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6936000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6948000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7651000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7188000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7021000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6983000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7715000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7611000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7531000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6831000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6713000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6361000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5973000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,16 +4116,22 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>56000</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -3807,28 +4155,34 @@
         <v>0</v>
       </c>
       <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
         <v>-9000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-489000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>17000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>10000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>40000</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>478000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>370000</v>
+      </c>
+      <c r="F76" s="3">
         <v>284000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>242000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>282000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>536000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>863000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1090000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1230000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1530000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1922000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2276000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2176000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2777000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2768000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2780000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2694000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2789000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44134</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43945</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43854</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43763</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43672</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43581</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43490</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43399</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43308</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43217</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43126</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43035</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42944</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42853</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42762</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>137000</v>
+      </c>
+      <c r="F81" s="3">
         <v>77000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>196000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>277000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>243000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>103000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>396000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>249000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>241000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>283000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>290000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-479000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>174000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>131000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>190000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>146000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4620,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>56000</v>
+      </c>
+      <c r="F83" s="3">
         <v>49000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>47000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>47000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>50000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>49000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>48000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>51000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>49000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>49000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>48000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>48000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>51000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>51000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>53000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>56000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>161000</v>
+      </c>
+      <c r="F89" s="3">
         <v>240000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>383000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>420000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-53000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>310000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>399000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>451000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>165000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>326000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>494000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>420000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>314000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>250000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>365000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>235000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>158000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-52000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-24000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-36000</v>
       </c>
       <c r="H91" s="3">
         <v>-32000</v>
       </c>
       <c r="I91" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-35000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-31000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-43000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-64000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-48000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-32000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-29000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-38000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-45000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-311000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>42000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>111000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>178000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>938000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>183000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>140000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>195000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>186000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>120000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-54000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-144000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>57000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-87000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-230000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,52 +5326,58 @@
         <v>-107000</v>
       </c>
       <c r="E96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-105000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-108000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-111000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-115000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-97000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-99000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-102000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-105000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-53000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-53000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-54000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-51000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-52000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5547,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-257000</v>
+      </c>
+      <c r="F100" s="3">
         <v>1003000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-440000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-372000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-545000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-603000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-514000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-688000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-617000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-812000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-636000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-951000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>420000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>181000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-51000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>97000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-154000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>43000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-30000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-13000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>8000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-14000</v>
       </c>
       <c r="M101" s="3">
         <v>-11000</v>
       </c>
       <c r="N101" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="P101" s="3">
         <v>24000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>19000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>278000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="F102" s="3">
         <v>975000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-45000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>160000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-422000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>642000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>55000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-89000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-268000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-314000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-33000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-561000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>584000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>507000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>231000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>100000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-181000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>NTAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44225</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44134</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43945</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43854</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43763</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43672</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43581</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43490</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43399</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43308</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43217</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43126</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43035</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42944</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42853</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42762</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1555000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1470000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1416000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1303000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1401000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1404000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1371000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1236000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1592000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1563000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1517000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1474000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1644000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1539000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1415000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1321000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1481000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1404000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>520000</v>
+      </c>
+      <c r="E9" s="3">
         <v>495000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>483000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>431000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>460000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>463000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>446000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>420000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>564000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>581000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>543000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>511000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>615000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>583000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>515000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>497000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>568000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>553000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>511000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1035000</v>
+      </c>
+      <c r="E10" s="3">
         <v>975000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>933000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>872000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>941000</v>
       </c>
       <c r="H10" s="3">
         <v>941000</v>
       </c>
       <c r="I10" s="3">
+        <v>941000</v>
+      </c>
+      <c r="J10" s="3">
         <v>925000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>816000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1028000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>982000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>974000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>963000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1029000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>956000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>900000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>824000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>913000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>851000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>829000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E12" s="3">
         <v>215000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>212000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>233000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>212000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>211000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>209000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>215000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>205000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>203000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>211000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>208000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>203000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>193000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>194000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>193000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>191000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>181000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,47 +1084,50 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>40000</v>
       </c>
-      <c r="F14" s="3">
-        <v>13000</v>
-      </c>
       <c r="G14" s="3">
+        <v>27000</v>
+      </c>
+      <c r="H14" s="3">
         <v>10000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>21000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>16000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>19000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1122,13 +1141,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>52000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1212000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1234000</v>
       </c>
-      <c r="F17" s="3">
-        <v>1167000</v>
-      </c>
       <c r="G17" s="3">
+        <v>1181000</v>
+      </c>
+      <c r="H17" s="3">
         <v>1134000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1136000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1075000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1132000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1222000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1252000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1231000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1220000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1332000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1049000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1199000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1181000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1234000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1221000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1198000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E18" s="3">
         <v>258000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>182000</v>
       </c>
-      <c r="F18" s="3">
-        <v>136000</v>
-      </c>
       <c r="G18" s="3">
+        <v>122000</v>
+      </c>
+      <c r="H18" s="3">
         <v>267000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>268000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>296000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>104000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>370000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>311000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>286000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>254000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>312000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>490000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>216000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>140000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>247000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>183000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>8000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11000</v>
       </c>
-      <c r="F20" s="3">
-        <v>-14000</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>22000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>15000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>30000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>28000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>24000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>21000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>32000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>31000</v>
       </c>
       <c r="P20" s="3">
         <v>31000</v>
       </c>
       <c r="Q20" s="3">
+        <v>31000</v>
+      </c>
+      <c r="R20" s="3">
         <v>23000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>18000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>12000</v>
       </c>
       <c r="U20" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>503000</v>
+      </c>
+      <c r="E21" s="3">
         <v>320000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>249000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>171000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>311000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>337000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>361000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>183000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>446000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>386000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>356000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>335000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>391000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>569000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>290000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>209000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>314000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>251000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,176 +1513,185 @@
         <v>19000</v>
       </c>
       <c r="E22" s="3">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="F22" s="3">
         <v>18000</v>
       </c>
       <c r="G22" s="3">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="H22" s="3">
         <v>14000</v>
       </c>
       <c r="I22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J22" s="3">
         <v>12000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>14000</v>
       </c>
       <c r="N22" s="3">
         <v>14000</v>
       </c>
       <c r="O22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="P22" s="3">
         <v>15000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>17000</v>
       </c>
       <c r="Q22" s="3">
         <v>17000</v>
       </c>
       <c r="R22" s="3">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="S22" s="3">
         <v>13000</v>
       </c>
       <c r="T22" s="3">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="U22" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>436000</v>
+      </c>
+      <c r="E23" s="3">
         <v>247000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>175000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>104000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>250000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>276000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>299000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>119000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>384000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>319000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>293000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>272000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>328000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>504000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>222000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>145000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>248000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>183000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E24" s="3">
         <v>65000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>38000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>54000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>56000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-12000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>70000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>52000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-11000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>127000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>48000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>58000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>37000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E26" s="3">
         <v>182000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>137000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>77000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>196000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>277000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>243000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>103000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>396000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>249000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>241000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>283000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>292000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>377000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>174000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>131000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>190000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>146000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E27" s="3">
         <v>182000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>137000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>77000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>196000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>277000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>243000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>103000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>396000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>249000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>241000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>283000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>292000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>377000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>174000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>131000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>190000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>146000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1916,14 +1976,14 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-856000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11000</v>
       </c>
-      <c r="F32" s="3">
-        <v>14000</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-22000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-15000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-30000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-28000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-24000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-21000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-32000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-31000</v>
       </c>
       <c r="P32" s="3">
         <v>-31000</v>
       </c>
       <c r="Q32" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="R32" s="3">
         <v>-23000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-18000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-12000</v>
       </c>
       <c r="U32" s="3">
         <v>-12000</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>-12000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E33" s="3">
         <v>182000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>137000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>77000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>196000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>277000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>243000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>103000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>396000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>249000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>241000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>283000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>290000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-479000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>174000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>131000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>190000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>146000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E35" s="3">
         <v>182000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>137000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>77000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>196000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>277000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>243000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>103000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>396000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>249000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>241000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>283000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>290000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-479000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>174000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>131000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>190000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>146000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44225</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44134</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43945</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43854</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43763</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43672</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43581</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43490</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43399</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43308</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43217</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43126</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43035</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42944</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42853</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42762</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,382 +2486,401 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4529000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3808000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3529000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3633000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2658000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2705000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2545000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2967000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2325000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2271000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2359000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2627000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2941000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2974000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3535000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2951000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2444000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2213000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2113000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E42" s="3">
         <v>86000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>117000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>140000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>224000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>303000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>442000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>565000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1574000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1778000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1940000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2184000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2450000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2645000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2430000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2370000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2477000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2426000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2244000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E43" s="3">
         <v>799000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>796000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>604000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>973000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>821000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>780000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>542000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1216000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>872000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>765000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>616000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1047000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>754000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>584000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>518000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>731000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>605000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E44" s="3">
         <v>106000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>116000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>136000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>145000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>113000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>111000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>116000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>131000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>100000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>86000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>97000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>122000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>98000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>108000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>143000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>163000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>125000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E45" s="3">
         <v>315000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>263000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>304000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>274000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>276000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>313000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>326000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>364000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>340000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>321000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>329000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>392000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>295000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>363000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>316000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>383000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>277000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>219000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6001000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5114000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4821000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4817000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4274000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4218000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4191000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4516000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5610000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5361000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5471000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5853000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6952000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6766000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7020000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6298000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6198000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5646000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5220000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>71000</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="3">
+        <v>71000</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>68000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>80000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>78000</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>10</v>
@@ -2793,8 +2897,8 @@
       <c r="N47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2814,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>639000</v>
+      </c>
+      <c r="E48" s="3">
         <v>851000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>866000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>872000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>864000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>882000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>889000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>896000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>759000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>763000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>770000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>768000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>756000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>741000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>795000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>799000</v>
       </c>
       <c r="S48" s="3">
         <v>799000</v>
       </c>
       <c r="T48" s="3">
+        <v>799000</v>
+      </c>
+      <c r="U48" s="3">
         <v>892000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>949000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2140000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2149000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2164000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2178000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1822000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1813000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1821000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1832000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1782000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1798000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1811000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1820000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1833000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1845000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1859000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1825000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1815000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1821000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1834000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>509000</v>
+      </c>
+      <c r="E52" s="3">
         <v>501000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>569000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>481000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>482000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>492000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>571000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>567000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>590000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>496000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>499000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>464000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>450000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>435000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>634000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>677000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>681000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>696000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>759000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9360000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8686000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8420000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8416000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7522000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7483000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7472000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7811000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8741000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8418000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8551000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8905000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9991000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9787000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10308000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9599000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9493000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9055000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8762000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>420000</v>
+      </c>
+      <c r="E57" s="3">
         <v>336000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>367000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>396000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>426000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>381000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>382000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>348000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>542000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>497000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>472000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>425000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>609000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>458000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>379000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>289000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>347000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>258000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3344,173 +3477,182 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>150000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>522000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>693000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>498000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>430000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>649000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>562000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>648000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>385000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>632000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1468000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1643000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1249000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1140000</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3032000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2714000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2553000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2430000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2668000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2455000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2324000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2397000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2676000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2371000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2190000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2215000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2537000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2458000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2367000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2355000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2526000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2446000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2275000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3452000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3050000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2920000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2976000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3616000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3529000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3204000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3175000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3867000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3430000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3310000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2840000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3531000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3548000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4214000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4287000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4122000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3844000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,25 +3660,25 @@
         <v>2632000</v>
       </c>
       <c r="E61" s="3">
+        <v>2632000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2631000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2630000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1146000</v>
       </c>
       <c r="H61" s="3">
         <v>1146000</v>
       </c>
       <c r="I61" s="3">
-        <v>1145000</v>
+        <v>1146000</v>
       </c>
       <c r="J61" s="3">
         <v>1145000</v>
       </c>
       <c r="K61" s="3">
-        <v>1144000</v>
+        <v>1145000</v>
       </c>
       <c r="L61" s="3">
         <v>1144000</v>
@@ -3545,90 +3687,96 @@
         <v>1144000</v>
       </c>
       <c r="N61" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="O61" s="3">
         <v>1542000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1541000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>1540000</v>
       </c>
       <c r="Q61" s="3">
         <v>1540000</v>
       </c>
       <c r="R61" s="3">
+        <v>1540000</v>
+      </c>
+      <c r="S61" s="3">
         <v>745000</v>
-      </c>
-      <c r="S61" s="3">
-        <v>744000</v>
       </c>
       <c r="T61" s="3">
         <v>744000</v>
       </c>
       <c r="U61" s="3">
+        <v>744000</v>
+      </c>
+      <c r="V61" s="3">
         <v>1492000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2591000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2526000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2499000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2526000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2518000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2526000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2587000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2628000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2640000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2614000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2567000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2601000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3604000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2523000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1777000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1799000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1847000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1773000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1953000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8675000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8208000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8050000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8132000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7280000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7201000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6936000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6948000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7651000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7188000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7021000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6983000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7715000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7611000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7531000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6831000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6713000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6361000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5973000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,20 +4292,23 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E72" s="3">
         <v>56000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>30000</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
       <c r="G72" s="3">
         <v>0</v>
       </c>
@@ -4161,28 +4334,31 @@
         <v>0</v>
       </c>
       <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
         <v>-9000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-489000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>40000</v>
       </c>
-      <c r="T72" s="3">
-        <v>0</v>
-      </c>
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>685000</v>
+      </c>
+      <c r="E76" s="3">
         <v>478000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>370000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>284000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>242000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>282000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>536000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>863000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1090000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1230000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1530000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1922000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2276000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2176000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2777000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2768000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2780000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2694000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2789000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44225</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44134</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43945</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43854</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43763</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43672</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43581</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43490</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43399</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43308</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43217</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43126</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43035</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42944</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42853</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42762</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E81" s="3">
         <v>182000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>137000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>77000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>196000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>277000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>243000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>103000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>396000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>249000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>241000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>283000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>290000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-479000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>174000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>131000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>190000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>146000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E83" s="3">
         <v>54000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>56000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>49000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>47000</v>
       </c>
       <c r="H83" s="3">
         <v>47000</v>
       </c>
       <c r="I83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="J83" s="3">
         <v>50000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>49000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>48000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>51000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>49000</v>
       </c>
       <c r="N83" s="3">
         <v>49000</v>
       </c>
       <c r="O83" s="3">
-        <v>48000</v>
+        <v>49000</v>
       </c>
       <c r="P83" s="3">
         <v>48000</v>
       </c>
       <c r="Q83" s="3">
-        <v>51000</v>
+        <v>48000</v>
       </c>
       <c r="R83" s="3">
         <v>51000</v>
       </c>
       <c r="S83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="T83" s="3">
         <v>53000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>56000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E89" s="3">
         <v>373000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>161000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>240000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>383000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>420000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-53000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>310000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>399000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>451000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>165000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>326000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>494000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>420000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>314000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>250000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>365000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>235000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>158000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-40000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-52000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-24000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-32000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-32000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-35000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-43000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-64000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-48000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-29000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-38000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-45000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>341000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-311000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>42000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>111000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>178000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>938000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>183000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>140000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>195000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>186000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>120000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-144000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>57000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-87000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-230000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,13 +5549,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-107000</v>
+        <v>-106000</v>
       </c>
       <c r="E96" s="3">
         <v>-107000</v>
@@ -5332,52 +5565,55 @@
         <v>-107000</v>
       </c>
       <c r="G96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-105000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-108000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-111000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-115000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-97000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-99000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-102000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-105000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-53000</v>
       </c>
       <c r="P96" s="3">
         <v>-53000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-54000</v>
+        <v>-53000</v>
       </c>
       <c r="R96" s="3">
         <v>-54000</v>
       </c>
       <c r="S96" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-51000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-52000</v>
       </c>
       <c r="U96" s="3">
         <v>-52000</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-52000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-122000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-257000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1003000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-440000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-372000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-545000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-603000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-514000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-688000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-617000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-812000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-636000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-951000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>420000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>181000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-51000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>97000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-154000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>26000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>43000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-30000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-13000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-11000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-14000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-11000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>24000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>19000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>721000</v>
+      </c>
+      <c r="E102" s="3">
         <v>278000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-105000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>975000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-45000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>160000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-422000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>642000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>55000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-89000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-268000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-314000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-33000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-561000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>584000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>507000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>231000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-181000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>NTAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44407</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44225</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44134</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43945</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43854</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43763</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43672</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43581</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43490</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43399</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43308</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43217</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43126</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43035</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42944</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42853</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42762</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1458000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1555000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1470000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1416000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1303000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1401000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1404000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1371000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1236000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1592000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1563000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1517000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1474000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1644000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1539000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1415000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1321000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1481000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1404000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>459000</v>
+      </c>
+      <c r="E9" s="3">
         <v>520000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>495000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>483000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>431000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>460000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>463000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>446000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>420000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>564000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>581000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>543000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>511000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>615000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>583000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>515000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>497000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>568000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>553000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>511000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>999000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1035000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>975000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>933000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>872000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>941000</v>
       </c>
       <c r="I10" s="3">
         <v>941000</v>
       </c>
       <c r="J10" s="3">
+        <v>941000</v>
+      </c>
+      <c r="K10" s="3">
         <v>925000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>816000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1028000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>982000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>974000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>963000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1029000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>956000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>900000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>824000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>913000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>851000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>829000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E12" s="3">
         <v>221000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>215000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>212000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>233000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>212000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>211000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>209000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>215000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>205000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>203000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>211000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>208000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>203000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>193000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>194000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>193000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>191000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>181000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,50 +1104,53 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
-        <v>40000</v>
-      </c>
       <c r="G14" s="3">
+        <v>45000</v>
+      </c>
+      <c r="H14" s="3">
         <v>27000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>21000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>16000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>19000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1144,13 +1164,16 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>52000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1209000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1212000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1234000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1181000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1134000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1136000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1075000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1132000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1222000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1252000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1231000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1220000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1332000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1049000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1199000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1181000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1234000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1221000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1198000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E18" s="3">
         <v>455000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>258000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>182000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>122000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>267000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>268000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>296000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>104000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>370000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>311000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>286000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>254000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>312000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>490000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>216000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>140000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>247000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>183000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>8000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>22000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>15000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>30000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>28000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>24000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>21000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>32000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>31000</v>
       </c>
       <c r="Q20" s="3">
         <v>31000</v>
       </c>
       <c r="R20" s="3">
+        <v>31000</v>
+      </c>
+      <c r="S20" s="3">
         <v>23000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>18000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>12000</v>
       </c>
       <c r="V20" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E21" s="3">
         <v>503000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>320000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>249000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>171000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>311000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>337000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>361000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>183000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>446000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>386000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>356000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>335000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>391000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>569000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>290000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>209000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>314000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>251000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="E22" s="3">
         <v>19000</v>
       </c>
       <c r="F22" s="3">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="G22" s="3">
         <v>18000</v>
       </c>
       <c r="H22" s="3">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="I22" s="3">
         <v>14000</v>
       </c>
       <c r="J22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K22" s="3">
         <v>12000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>14000</v>
       </c>
       <c r="O22" s="3">
         <v>14000</v>
       </c>
       <c r="P22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>15000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>17000</v>
       </c>
       <c r="R22" s="3">
         <v>17000</v>
       </c>
       <c r="S22" s="3">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="T22" s="3">
         <v>13000</v>
       </c>
       <c r="U22" s="3">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="V22" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E23" s="3">
         <v>436000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>247000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>175000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>104000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>250000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>276000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>299000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>119000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>384000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>319000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>293000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>272000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>328000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>504000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>222000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>145000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>248000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>183000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E24" s="3">
         <v>102000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>65000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>38000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>27000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>54000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>56000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-12000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>70000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>52000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-11000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>127000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>48000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>58000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>37000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E26" s="3">
         <v>334000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>182000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>137000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>77000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>196000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>277000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>243000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>103000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>396000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>249000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>241000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>283000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>292000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>377000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>174000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>131000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>190000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>146000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E27" s="3">
         <v>334000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>182000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>137000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>77000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>196000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>277000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>243000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>103000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>396000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>249000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>241000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>283000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>292000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>377000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>174000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>131000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>190000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>146000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,31 +1996,34 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1979,14 +2040,14 @@
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-856000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-8000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-22000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-15000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-30000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-28000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-24000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-21000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-32000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-31000</v>
       </c>
       <c r="Q32" s="3">
         <v>-31000</v>
       </c>
       <c r="R32" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="S32" s="3">
         <v>-23000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-18000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-12000</v>
       </c>
       <c r="V32" s="3">
         <v>-12000</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>-12000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E33" s="3">
         <v>334000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>182000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>137000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>77000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>196000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>277000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>243000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>103000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>396000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>249000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>241000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>283000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>290000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-479000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>174000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>131000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>190000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>146000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E35" s="3">
         <v>334000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>182000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>137000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>77000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>196000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>277000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>243000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>103000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>396000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>249000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>241000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>283000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>290000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-479000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>174000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>131000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>190000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>146000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44407</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44225</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44134</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43945</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43854</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43763</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43672</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43581</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43490</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43399</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43308</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43217</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43126</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43035</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42944</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42853</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42762</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,403 +2573,422 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4492000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4529000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3808000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3529000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3633000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2658000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2705000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2545000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2967000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2325000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2271000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2359000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2627000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2941000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2974000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3535000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2951000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2444000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2213000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2113000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E42" s="3">
         <v>67000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>86000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>117000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>140000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>224000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>303000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>442000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>565000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1574000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1778000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1940000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2184000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2450000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2645000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2430000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2370000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2477000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2426000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2244000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>655000</v>
+      </c>
+      <c r="E43" s="3">
         <v>945000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>799000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>796000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>604000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>973000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>821000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>780000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>542000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1216000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>872000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>765000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>616000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1047000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>754000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>584000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>518000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>731000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>605000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E44" s="3">
         <v>114000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>106000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>116000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>136000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>145000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>113000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>111000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>116000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>131000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>100000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>86000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>97000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>122000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>98000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>108000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>143000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>163000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>125000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>321000</v>
+      </c>
+      <c r="E45" s="3">
         <v>346000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>315000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>263000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>304000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>274000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>276000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>313000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>326000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>364000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>340000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>321000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>329000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>392000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>295000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>363000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>316000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>383000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>277000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>219000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5631000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6001000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5114000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4821000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4817000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4274000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4218000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4191000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4516000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5610000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5361000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5471000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5853000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6952000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6766000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7020000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6298000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6198000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5646000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5220000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71000</v>
+        <v>72000</v>
       </c>
       <c r="E47" s="3">
         <v>71000</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="3">
+        <v>71000</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>68000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>80000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>78000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>10</v>
@@ -2900,8 +3005,8 @@
       <c r="O47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2921,132 +3026,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>792000</v>
+      </c>
+      <c r="E48" s="3">
         <v>639000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>851000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>866000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>872000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>864000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>882000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>889000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>896000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>759000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>763000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>770000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>768000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>756000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>741000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>795000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>799000</v>
       </c>
       <c r="T48" s="3">
         <v>799000</v>
       </c>
       <c r="U48" s="3">
+        <v>799000</v>
+      </c>
+      <c r="V48" s="3">
         <v>892000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>949000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2147000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2140000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2149000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2164000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2178000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1822000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1813000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1821000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1832000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1782000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1798000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1811000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1820000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1833000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1845000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1859000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1825000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1815000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1821000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1834000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>514000</v>
+      </c>
+      <c r="E52" s="3">
         <v>509000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>501000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>569000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>481000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>482000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>492000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>571000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>567000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>590000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>496000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>499000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>464000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>450000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>435000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>634000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>677000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>681000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>696000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>759000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9156000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9360000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8686000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8420000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8416000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7522000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7483000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7472000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7811000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8741000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8418000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8551000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8905000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9991000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9787000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10308000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9599000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9493000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9055000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8762000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,75 +3533,79 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E57" s="3">
         <v>420000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>336000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>367000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>396000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>426000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>381000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>382000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>348000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>542000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>497000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>472000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>425000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>609000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>458000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>379000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>289000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>347000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>258000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3480,208 +3614,217 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>150000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>522000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>693000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>498000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>430000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>649000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>562000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>648000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>385000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>632000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1468000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1643000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1249000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1140000</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2735000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3032000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2714000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2553000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2430000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2668000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2455000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2324000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2397000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2676000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2371000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2190000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2215000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2537000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2458000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2367000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2355000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2526000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2446000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2275000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3103000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3452000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3050000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2920000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2976000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3616000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3529000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3204000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3175000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3867000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3430000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3310000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2840000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3531000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3548000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4214000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4287000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4122000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3844000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2632000</v>
+        <v>2633000</v>
       </c>
       <c r="E61" s="3">
         <v>2632000</v>
       </c>
       <c r="F61" s="3">
+        <v>2632000</v>
+      </c>
+      <c r="G61" s="3">
         <v>2631000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2630000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1146000</v>
       </c>
       <c r="I61" s="3">
         <v>1146000</v>
       </c>
       <c r="J61" s="3">
-        <v>1145000</v>
+        <v>1146000</v>
       </c>
       <c r="K61" s="3">
         <v>1145000</v>
       </c>
       <c r="L61" s="3">
-        <v>1144000</v>
+        <v>1145000</v>
       </c>
       <c r="M61" s="3">
         <v>1144000</v>
@@ -3690,93 +3833,99 @@
         <v>1144000</v>
       </c>
       <c r="O61" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="P61" s="3">
         <v>1542000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1541000</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>1540000</v>
       </c>
       <c r="R61" s="3">
         <v>1540000</v>
       </c>
       <c r="S61" s="3">
+        <v>1540000</v>
+      </c>
+      <c r="T61" s="3">
         <v>745000</v>
-      </c>
-      <c r="T61" s="3">
-        <v>744000</v>
       </c>
       <c r="U61" s="3">
         <v>744000</v>
       </c>
       <c r="V61" s="3">
+        <v>744000</v>
+      </c>
+      <c r="W61" s="3">
         <v>1492000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2591000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2526000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2499000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2526000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2518000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2526000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2587000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2628000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2640000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2614000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2567000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2601000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3604000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2523000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1777000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1799000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1847000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1773000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1953000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8436000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8675000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8208000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8050000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8132000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7280000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7201000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6936000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6948000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7651000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7188000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7021000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6983000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7715000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7611000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7531000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6831000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6713000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6361000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5973000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,23 +4466,26 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E72" s="3">
         <v>211000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>56000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>30000</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
@@ -4337,28 +4511,31 @@
         <v>0</v>
       </c>
       <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-489000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>40000</v>
       </c>
-      <c r="U72" s="3">
-        <v>0</v>
-      </c>
       <c r="V72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>720000</v>
+      </c>
+      <c r="E76" s="3">
         <v>685000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>478000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>370000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>284000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>242000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>282000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>536000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>863000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1090000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1230000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1530000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1922000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2276000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2176000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2777000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2768000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2780000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2694000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2789000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44407</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44225</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44134</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43945</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43854</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43763</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43672</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43581</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43490</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43399</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43308</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43217</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43126</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43035</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42944</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42853</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42762</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E81" s="3">
         <v>334000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>182000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>137000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>77000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>196000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>277000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>243000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>103000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>396000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>249000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>241000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>283000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>290000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-479000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>174000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>131000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>190000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>146000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E83" s="3">
         <v>48000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>54000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>56000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>49000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>47000</v>
       </c>
       <c r="I83" s="3">
         <v>47000</v>
       </c>
       <c r="J83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="K83" s="3">
         <v>50000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>49000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>48000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>51000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>49000</v>
       </c>
       <c r="O83" s="3">
         <v>49000</v>
       </c>
       <c r="P83" s="3">
-        <v>48000</v>
+        <v>49000</v>
       </c>
       <c r="Q83" s="3">
         <v>48000</v>
       </c>
       <c r="R83" s="3">
-        <v>51000</v>
+        <v>48000</v>
       </c>
       <c r="S83" s="3">
         <v>51000</v>
       </c>
       <c r="T83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="U83" s="3">
         <v>53000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>56000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E89" s="3">
         <v>559000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>373000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>161000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>240000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>383000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>420000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-53000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>310000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>399000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>451000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>165000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>326000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>494000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>420000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>314000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>250000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>365000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>235000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>158000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-38000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-32000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-40000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-52000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-24000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-32000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-32000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-35000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-43000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-64000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-29000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-36000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-38000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-45000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E94" s="3">
         <v>341000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-311000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>42000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>111000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>178000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>938000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>183000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>140000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>195000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>186000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>120000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-54000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-144000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>57000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-87000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-230000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,16 +5783,17 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-106000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-107000</v>
       </c>
       <c r="F96" s="3">
         <v>-107000</v>
@@ -5568,52 +5802,55 @@
         <v>-107000</v>
       </c>
       <c r="H96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-105000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-108000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-111000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-115000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-97000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-99000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-102000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-105000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-53000</v>
       </c>
       <c r="Q96" s="3">
         <v>-53000</v>
       </c>
       <c r="R96" s="3">
-        <v>-54000</v>
+        <v>-53000</v>
       </c>
       <c r="S96" s="3">
         <v>-54000</v>
       </c>
       <c r="T96" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-51000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-52000</v>
       </c>
       <c r="V96" s="3">
         <v>-52000</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-52000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-180000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-122000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-257000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1003000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-440000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-372000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-545000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-603000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-514000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-688000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-617000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-812000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-636000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-951000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>420000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>181000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-51000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>97000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-154000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>26000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>43000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-30000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-13000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-11000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-14000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>24000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-6000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>19000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E102" s="3">
         <v>721000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>278000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-105000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>975000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-45000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>160000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-422000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>642000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>55000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-89000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-268000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-314000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-561000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>584000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>507000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>231000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-181000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>NTAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,321 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44498</v>
+      </c>
+      <c r="F7" s="2">
         <v>44407</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44225</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44134</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43945</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43854</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43763</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43672</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43581</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43490</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43399</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43308</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43217</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43126</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43035</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42944</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42853</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42762</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1614000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1566000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1458000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1555000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1470000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1416000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1303000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1401000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1404000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1371000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1236000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1592000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1563000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1517000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1474000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1644000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1539000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1415000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1321000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1481000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1404000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>541000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>507000</v>
+      </c>
+      <c r="F9" s="3">
         <v>459000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>520000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>495000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>483000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>431000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>460000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>463000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>446000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>420000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>564000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>581000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>543000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>511000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>615000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>583000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>515000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>497000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>568000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>553000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>511000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1073000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1059000</v>
+      </c>
+      <c r="F10" s="3">
         <v>999000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1035000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>975000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>933000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>872000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>941000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>941000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>925000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>816000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1028000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>982000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>974000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>963000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1029000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>956000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>900000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>824000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>913000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>851000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>829000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +1003,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>216000</v>
+      </c>
+      <c r="F12" s="3">
         <v>210000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>221000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>215000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>212000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>233000</v>
       </c>
       <c r="I12" s="3">
         <v>212000</v>
       </c>
       <c r="J12" s="3">
+        <v>233000</v>
+      </c>
+      <c r="K12" s="3">
+        <v>212000</v>
+      </c>
+      <c r="L12" s="3">
         <v>211000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>209000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>215000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>205000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>203000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>211000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>208000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>203000</v>
-      </c>
-      <c r="R12" s="3">
-        <v>193000</v>
-      </c>
-      <c r="S12" s="3">
-        <v>194000</v>
       </c>
       <c r="T12" s="3">
         <v>193000</v>
       </c>
       <c r="U12" s="3">
+        <v>194000</v>
+      </c>
+      <c r="V12" s="3">
+        <v>193000</v>
+      </c>
+      <c r="W12" s="3">
         <v>191000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>181000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,56 +1141,62 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="3">
         <v>23000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>45000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>27000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>10000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>21000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>16000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>19000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1167,13 +1207,19 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>52000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1293000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1272000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1209000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1100000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1212000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1234000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1181000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1134000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1136000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1075000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1132000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1222000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1252000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1231000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1220000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1332000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1049000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1199000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1181000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1234000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1221000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1198000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>321000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>294000</v>
+      </c>
+      <c r="F18" s="3">
         <v>249000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>455000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>258000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>182000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>122000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>267000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>268000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>296000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>104000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>370000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>311000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>286000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>254000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>312000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>490000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>216000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>140000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>247000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>183000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1480,365 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>8000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>11000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>22000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>15000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>30000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>28000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>24000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>21000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>32000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>31000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>31000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>23000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>18000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>14000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>12000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>344000</v>
+      </c>
+      <c r="F21" s="3">
         <v>301000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>503000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>320000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>249000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>171000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>311000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>337000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>361000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>183000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>446000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>386000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>356000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>335000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>391000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>569000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>290000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>209000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>314000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>251000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E22" s="3">
         <v>18000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G22" s="3">
         <v>19000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>19000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>18000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>18000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>14000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>14000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>12000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>15000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>14000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>16000</v>
       </c>
       <c r="O22" s="3">
         <v>14000</v>
       </c>
       <c r="P22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>14000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="S22" s="3">
         <v>15000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>17000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>17000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>13000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>13000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>12000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>306000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>280000</v>
+      </c>
+      <c r="F23" s="3">
         <v>237000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>436000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>247000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>175000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>104000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>250000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>276000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>299000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>119000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>384000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>319000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>293000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>272000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>328000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>504000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>222000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>145000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>248000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>183000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>56000</v>
+      </c>
+      <c r="F24" s="3">
         <v>35000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>102000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>65000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>38000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>27000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>54000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>56000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>16000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-12000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>70000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>52000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>36000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>127000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>48000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>14000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>58000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>37000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>224000</v>
+      </c>
+      <c r="F26" s="3">
         <v>202000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>334000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>182000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>137000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>77000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>196000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>277000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>243000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>103000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>396000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>249000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>241000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>283000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>292000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>377000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>174000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>131000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>190000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>146000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>224000</v>
+      </c>
+      <c r="F27" s="3">
         <v>202000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>334000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>182000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>137000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>77000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>196000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>277000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>243000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>103000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>396000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>249000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>241000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>283000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>292000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>377000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>174000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>131000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>190000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>146000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,11 +2147,11 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -2043,17 +2165,17 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-856000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2328,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-8000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-11000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-22000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-15000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-30000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-28000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-24000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-21000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-31000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-31000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-23000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-18000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-14000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-12000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>224000</v>
+      </c>
+      <c r="F33" s="3">
         <v>202000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>334000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>182000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>137000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>77000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>196000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>277000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>243000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>103000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>396000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>249000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>241000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>283000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>290000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-479000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>174000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>131000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>190000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>146000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>224000</v>
+      </c>
+      <c r="F35" s="3">
         <v>202000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>334000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>182000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>137000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>77000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>196000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>277000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>243000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>103000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>396000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>249000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>241000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>283000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>290000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-479000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>174000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>131000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>190000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>146000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44498</v>
+      </c>
+      <c r="F38" s="2">
         <v>44407</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44225</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44134</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43945</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43854</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43763</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43672</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43581</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43490</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43399</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43308</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43217</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43126</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43035</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42944</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42853</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42762</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,427 +2746,465 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4170000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4509000</v>
+      </c>
+      <c r="F41" s="3">
         <v>4492000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4529000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3808000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3529000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3633000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2658000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2705000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2545000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2967000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2325000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2271000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2359000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2627000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2941000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2974000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3535000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2951000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2444000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2213000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2113000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F42" s="3">
         <v>55000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>67000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>86000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>117000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>140000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>224000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>303000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>442000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>565000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1574000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1778000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1940000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>2184000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>2450000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>2645000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>2430000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>2370000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>2477000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>2426000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>2244000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>799000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>647000</v>
+      </c>
+      <c r="F43" s="3">
         <v>655000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>945000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>799000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>796000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>604000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>973000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>821000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>780000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>542000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1216000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>872000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>765000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>616000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1047000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>754000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>584000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>518000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>731000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>605000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>155000</v>
+      </c>
+      <c r="F44" s="3">
         <v>108000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>114000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>106000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>116000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>136000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>145000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>113000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>111000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>116000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>131000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>100000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>86000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>97000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>122000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>98000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>108000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>143000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>163000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>125000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>319000</v>
+      </c>
+      <c r="F45" s="3">
         <v>321000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>346000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>315000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>263000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>304000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>274000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>276000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>313000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>326000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>364000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>340000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>321000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>329000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>392000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>295000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>363000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>316000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>383000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>277000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>219000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5513000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5669000</v>
+      </c>
+      <c r="F46" s="3">
         <v>5631000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6001000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5114000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4821000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4817000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4274000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4218000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4191000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4516000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5610000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5361000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5471000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5853000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6952000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6766000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7020000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>6298000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>6198000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>5646000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>5220000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F47" s="3">
         <v>72000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>71000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>71000</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>68000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>80000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>78000</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>10</v>
@@ -3008,11 +3218,11 @@
       <c r="P47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3029,138 +3239,156 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>883000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>812000</v>
+      </c>
+      <c r="F48" s="3">
         <v>792000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>639000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>851000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>866000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>872000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>864000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>882000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>889000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>896000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>759000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>763000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>770000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>768000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>756000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>741000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>795000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>799000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>799000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>892000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>949000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2480000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2137000</v>
+      </c>
+      <c r="F49" s="3">
         <v>2147000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2140000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2149000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2164000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2178000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1822000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1813000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1821000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1832000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1782000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1798000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1811000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1820000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1833000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1845000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1859000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1825000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1815000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1821000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1834000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3523,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>549000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>529000</v>
+      </c>
+      <c r="F52" s="3">
         <v>514000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>509000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>501000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>569000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>481000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>482000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>492000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>571000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>567000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>590000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>496000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>499000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>464000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>450000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>435000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>634000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>677000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>681000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>696000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>759000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9500000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9222000</v>
+      </c>
+      <c r="F54" s="3">
         <v>9156000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9360000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8686000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8420000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8416000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7522000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7483000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7472000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7811000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8741000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8418000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>8551000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8905000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>9991000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>9787000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10308000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>9599000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>9493000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>9055000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>8762000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3794,436 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>432000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>432000</v>
+      </c>
+      <c r="F57" s="3">
         <v>368000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>420000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>336000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>367000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>396000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>426000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>381000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>382000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>348000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>542000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>497000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>472000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>425000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>609000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>458000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>379000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>289000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>347000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>258000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>150000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>522000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>693000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>498000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>430000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>649000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>562000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>648000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>200000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>385000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>632000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1468000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1643000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1249000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1140000</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2870000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2763000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2735000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3032000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2714000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2553000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2430000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2668000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2455000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2324000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2397000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2676000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2371000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2190000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2215000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2537000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2458000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2367000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2355000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2526000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2446000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2275000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3552000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3195000</v>
+      </c>
+      <c r="F60" s="3">
         <v>3103000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3452000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3050000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2920000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2976000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3616000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3529000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3204000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3175000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3867000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3430000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3310000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2840000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3531000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3548000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4214000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4287000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4122000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3844000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2385000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2634000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2633000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2632000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2632000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2631000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2630000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1146000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1146000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1145000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1145000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>1144000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>1144000</v>
       </c>
       <c r="O61" s="3">
         <v>1144000</v>
       </c>
       <c r="P61" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="R61" s="3">
         <v>1542000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1541000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1540000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1540000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>745000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>744000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>744000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1492000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2681000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2634000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2700000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2591000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2526000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2499000</v>
       </c>
       <c r="H62" s="3">
         <v>2526000</v>
       </c>
       <c r="I62" s="3">
-        <v>2518000</v>
+        <v>2499000</v>
       </c>
       <c r="J62" s="3">
         <v>2526000</v>
       </c>
       <c r="K62" s="3">
+        <v>2518000</v>
+      </c>
+      <c r="L62" s="3">
+        <v>2526000</v>
+      </c>
+      <c r="M62" s="3">
         <v>2587000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2628000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2640000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2614000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2567000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2601000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>3604000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2523000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1777000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1799000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1847000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1773000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1953000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8618000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8463000</v>
+      </c>
+      <c r="F66" s="3">
         <v>8436000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8675000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8208000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8050000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8132000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7280000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7201000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6936000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6948000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7651000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7188000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7021000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6983000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7715000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7611000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7531000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6831000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6713000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6361000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>5973000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,29 +4811,35 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>194000</v>
+      </c>
+      <c r="F72" s="3">
         <v>204000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>211000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>56000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>30000</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
       <c r="J72" s="3">
         <v>0</v>
       </c>
@@ -4514,28 +4862,34 @@
         <v>0</v>
       </c>
       <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
         <v>-9000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-489000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>17000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>10000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>40000</v>
       </c>
-      <c r="V72" s="3">
-        <v>0</v>
-      </c>
-      <c r="W72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>882000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>759000</v>
+      </c>
+      <c r="F76" s="3">
         <v>720000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>685000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>478000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>370000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>284000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>242000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>282000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>536000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>863000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1090000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1230000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1530000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1922000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2276000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2176000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2777000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2768000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2780000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2694000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2789000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44498</v>
+      </c>
+      <c r="F80" s="2">
         <v>44407</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44225</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44134</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43945</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43854</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43763</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43672</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43581</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43490</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43399</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43308</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43217</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43126</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43035</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42944</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42853</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42762</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>224000</v>
+      </c>
+      <c r="F81" s="3">
         <v>202000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>334000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>182000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>137000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>77000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>196000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>277000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>243000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>103000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>396000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>249000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>241000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>283000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>290000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-479000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>174000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>131000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>190000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>146000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5415,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E83" s="3">
         <v>46000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="G83" s="3">
         <v>48000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>54000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>56000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>49000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>47000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>47000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>50000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>49000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>48000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>51000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>49000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>49000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>48000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>48000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>51000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>51000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>53000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>56000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>298000</v>
+      </c>
+      <c r="F89" s="3">
         <v>242000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>559000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>373000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>161000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>240000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>383000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>420000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-53000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>310000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>399000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>451000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>165000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>326000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>494000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>420000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>314000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>250000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>365000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>235000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>158000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5939,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-51000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-38000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-32000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-40000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-52000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-24000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-36000</v>
       </c>
       <c r="L91" s="3">
         <v>-32000</v>
       </c>
       <c r="M91" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="O91" s="3">
         <v>-35000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-31000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-43000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-48000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-32000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-29000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-36000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-38000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-45000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6148,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-396000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-54000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>341000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-10000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-311000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>42000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>111000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>178000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>938000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>183000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>140000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>195000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>186000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>120000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-54000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-144000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>57000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-87000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-230000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6250,81 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-112000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-106000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-107000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-107000</v>
       </c>
       <c r="H96" s="3">
         <v>-107000</v>
       </c>
       <c r="I96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-105000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-108000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-111000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-115000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-97000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-99000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-102000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-105000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-53000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-53000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-54000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-54000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-51000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-52000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6530,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-218000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-180000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-122000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-257000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1003000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-440000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-372000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-545000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-603000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-514000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-688000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-617000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-812000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-636000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-951000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>420000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>181000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-51000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>97000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-154000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-5000</v>
-      </c>
-      <c r="E101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>26000</v>
       </c>
       <c r="G101" s="3">
         <v>1000</v>
       </c>
       <c r="H101" s="3">
+        <v>26000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J101" s="3">
         <v>43000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-30000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-13000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>8000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-14000</v>
       </c>
       <c r="Q101" s="3">
         <v>-11000</v>
       </c>
       <c r="R101" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="T101" s="3">
         <v>24000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-6000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>19000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-2000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-339000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-35000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>721000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>278000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-105000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>975000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-45000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>160000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-422000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>642000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>55000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-89000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-268000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-314000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-33000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-561000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>584000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>507000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>231000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>100000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-181000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E7" s="2">
         <v>44589</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44498</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44407</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44225</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44134</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43945</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43854</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43763</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43672</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43581</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43490</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43399</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43308</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43217</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43126</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43035</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42944</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42853</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42762</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1680000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1614000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1566000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1458000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1555000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1470000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1416000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1303000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1401000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1404000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1371000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1236000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1592000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1563000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1517000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1474000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1644000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1539000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1415000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1321000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1481000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1404000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>591000</v>
+      </c>
+      <c r="E9" s="3">
         <v>541000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>507000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>459000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>520000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>495000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>483000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>431000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>460000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>463000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>446000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>420000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>564000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>581000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>543000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>511000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>615000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>583000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>515000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>497000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>568000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>553000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>511000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1089000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1073000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1059000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>999000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1035000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>975000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>933000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>872000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>941000</v>
       </c>
       <c r="L10" s="3">
         <v>941000</v>
       </c>
       <c r="M10" s="3">
+        <v>941000</v>
+      </c>
+      <c r="N10" s="3">
         <v>925000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>816000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1028000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>982000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>974000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>963000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1029000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>956000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>900000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>824000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>913000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>851000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>829000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,79 +1018,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E12" s="3">
         <v>220000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>216000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>210000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>221000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>215000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>212000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>233000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>212000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>211000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>209000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>215000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>205000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>203000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>211000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>208000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>203000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>193000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>194000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>193000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>191000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>181000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,59 +1164,62 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E14" s="3">
         <v>6000</v>
       </c>
-      <c r="E14" s="3">
-        <v>1000</v>
-      </c>
       <c r="F14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G14" s="3">
         <v>23000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>45000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>27000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>21000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>16000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>19000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1213,13 +1233,16 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>52000</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1387000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1293000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1272000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1209000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1212000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1234000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1181000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1134000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1136000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1075000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1132000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1222000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1252000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1231000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1220000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1332000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1049000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1199000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1181000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1234000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1221000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1198000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>293000</v>
+      </c>
+      <c r="E18" s="3">
         <v>321000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>294000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>249000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>455000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>258000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>182000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>122000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>267000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>268000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>296000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>104000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>370000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>311000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>286000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>254000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>312000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>490000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>216000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>140000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>247000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>183000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,363 +1515,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4000</v>
+        <v>-3000</v>
       </c>
       <c r="E20" s="3">
         <v>4000</v>
       </c>
       <c r="F20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>8000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>22000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>30000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>28000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>24000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>21000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>32000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>31000</v>
       </c>
       <c r="T20" s="3">
         <v>31000</v>
       </c>
       <c r="U20" s="3">
+        <v>31000</v>
+      </c>
+      <c r="V20" s="3">
         <v>23000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>18000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>14000</v>
-      </c>
-      <c r="X20" s="3">
-        <v>12000</v>
       </c>
       <c r="Y20" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>341000</v>
+      </c>
+      <c r="E21" s="3">
         <v>376000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>344000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>301000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>503000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>320000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>249000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>171000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>311000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>337000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>361000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>183000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>446000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>386000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>356000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>335000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>391000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>569000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>290000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>209000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>314000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>251000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E22" s="3">
         <v>19000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>18000</v>
       </c>
       <c r="F22" s="3">
         <v>18000</v>
       </c>
       <c r="G22" s="3">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="H22" s="3">
         <v>19000</v>
       </c>
       <c r="I22" s="3">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="J22" s="3">
         <v>18000</v>
       </c>
       <c r="K22" s="3">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L22" s="3">
         <v>14000</v>
       </c>
       <c r="M22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="N22" s="3">
         <v>12000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>14000</v>
       </c>
       <c r="R22" s="3">
         <v>14000</v>
       </c>
       <c r="S22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="T22" s="3">
         <v>15000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>17000</v>
       </c>
       <c r="U22" s="3">
         <v>17000</v>
       </c>
       <c r="V22" s="3">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="W22" s="3">
         <v>13000</v>
       </c>
       <c r="X22" s="3">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Y22" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E23" s="3">
         <v>306000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>280000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>237000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>436000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>247000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>175000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>104000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>250000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>276000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>299000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>119000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>384000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>319000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>293000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>272000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>328000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>504000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>222000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>145000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>248000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>183000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E24" s="3">
         <v>54000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>56000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>35000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>102000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>65000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>38000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>27000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>54000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>56000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-12000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>70000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>52000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-11000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>36000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>127000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>48000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>14000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>58000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>37000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E26" s="3">
         <v>252000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>224000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>202000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>334000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>182000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>137000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>77000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>196000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>277000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>243000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>103000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>396000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>249000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>241000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>283000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>292000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>377000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>174000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>131000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>190000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>146000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E27" s="3">
         <v>252000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>224000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>202000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>334000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>182000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>137000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>77000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>196000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>277000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>243000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>103000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>396000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>249000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>241000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>283000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>292000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>377000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>174000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>131000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>190000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>146000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2153,8 +2214,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -2171,14 +2232,14 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3">
         <v>-2000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-856000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>10</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4000</v>
+        <v>3000</v>
       </c>
       <c r="E32" s="3">
         <v>-4000</v>
       </c>
       <c r="F32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-8000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-22000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-30000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-28000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-21000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-32000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-31000</v>
       </c>
       <c r="T32" s="3">
         <v>-31000</v>
       </c>
       <c r="U32" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="V32" s="3">
         <v>-23000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-18000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-12000</v>
       </c>
       <c r="Y32" s="3">
         <v>-12000</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>-12000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E33" s="3">
         <v>252000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>224000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>202000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>334000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>182000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>137000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>77000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>196000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>277000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>243000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>103000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>396000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>249000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>241000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>283000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>290000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-479000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>174000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>131000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>190000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>146000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E35" s="3">
         <v>252000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>224000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>202000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>334000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>182000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>137000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>77000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>196000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>277000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>243000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>103000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>396000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>249000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>241000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>283000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>290000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-479000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>174000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>131000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>190000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>146000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E38" s="2">
         <v>44589</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44498</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44407</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44225</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44134</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43945</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43854</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43763</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43672</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43581</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43490</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43399</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43308</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43217</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43126</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43035</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42944</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42853</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42762</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,466 +2834,485 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4112000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4170000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4509000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4492000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4529000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3808000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3529000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3633000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2658000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2705000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2545000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2967000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2325000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2271000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2359000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2627000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2941000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2974000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3535000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2951000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2444000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2213000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2113000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E42" s="3">
         <v>31000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>39000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>55000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>67000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>86000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>117000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>140000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>224000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>303000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>442000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>565000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1574000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1778000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1940000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2184000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2450000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2645000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2430000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2370000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2477000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2426000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2244000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1230000</v>
+      </c>
+      <c r="E43" s="3">
         <v>799000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>647000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>655000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>945000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>799000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>796000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>604000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>973000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>821000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>780000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>542000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1216000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>872000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>765000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>616000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1047000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>754000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>584000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>518000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>731000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>605000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E44" s="3">
         <v>167000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>155000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>108000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>114000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>106000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>116000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>136000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>145000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>113000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>111000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>116000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>131000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>100000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>86000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>97000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>122000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>98000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>108000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>143000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>163000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>125000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E45" s="3">
         <v>346000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>319000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>321000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>346000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>315000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>263000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>304000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>274000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>276000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>313000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>326000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>364000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>340000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>321000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>329000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>392000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>295000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>363000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>316000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>383000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>277000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>219000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5945000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5513000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5669000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5631000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6001000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5114000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4821000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4817000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4274000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4218000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4191000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4516000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5610000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5361000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5471000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5853000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6952000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6766000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7020000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6298000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6198000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5646000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5220000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75000</v>
+        <v>73000</v>
       </c>
       <c r="E47" s="3">
         <v>75000</v>
       </c>
       <c r="F47" s="3">
+        <v>75000</v>
+      </c>
+      <c r="G47" s="3">
         <v>72000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>71000</v>
       </c>
       <c r="H47" s="3">
         <v>71000</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="3">
+        <v>71000</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>68000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>80000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>78000</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>10</v>
@@ -3224,8 +3329,8 @@
       <c r="R47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3245,150 +3350,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>896000</v>
+      </c>
+      <c r="E48" s="3">
         <v>883000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>812000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>792000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>639000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>851000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>866000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>872000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>864000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>882000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>889000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>896000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>759000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>763000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>770000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>768000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>756000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>741000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>795000</v>
-      </c>
-      <c r="V48" s="3">
-        <v>799000</v>
       </c>
       <c r="W48" s="3">
         <v>799000</v>
       </c>
       <c r="X48" s="3">
+        <v>799000</v>
+      </c>
+      <c r="Y48" s="3">
         <v>892000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>949000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2488000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2480000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2137000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2147000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2140000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2149000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2164000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2178000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1822000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1813000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1821000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1832000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1782000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1798000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1811000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1820000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1833000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1845000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1859000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1825000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1815000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1821000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1834000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>624000</v>
+      </c>
+      <c r="E52" s="3">
         <v>549000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>529000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>514000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>509000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>501000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>569000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>481000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>482000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>492000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>571000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>567000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>590000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>496000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>499000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>464000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>450000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>435000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>634000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>677000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>681000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>696000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>759000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10026000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9500000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9222000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9156000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9360000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8686000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8420000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8416000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7522000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7483000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7472000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7811000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8741000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8418000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8551000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8905000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9991000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9787000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10308000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9599000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9493000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9055000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8762000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,93 +3926,97 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>432000</v>
+        <v>607000</v>
       </c>
       <c r="E57" s="3">
         <v>432000</v>
       </c>
       <c r="F57" s="3">
+        <v>432000</v>
+      </c>
+      <c r="G57" s="3">
         <v>368000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>420000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>336000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>367000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>396000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>426000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>381000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>382000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>348000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>542000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>497000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>472000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>425000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>609000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>458000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>379000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>289000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>347000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>258000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>250000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
+      <c r="E58" s="3">
+        <v>250000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3891,235 +4025,244 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>150000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>522000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>693000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>498000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>430000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>649000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>562000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>648000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>385000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>632000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1468000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1643000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1249000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1140000</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3096000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2870000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2763000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2735000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3032000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2714000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2553000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2430000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2668000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2455000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2324000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2397000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2676000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2371000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2190000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2215000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2537000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2458000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2367000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2355000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2526000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2446000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2275000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3953000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3552000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3195000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3103000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3452000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3050000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2920000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2976000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3616000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3529000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3204000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3175000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3867000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3430000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3310000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2840000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3531000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3548000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4214000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4287000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4122000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3844000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2386000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2385000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2634000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2633000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>2632000</v>
       </c>
       <c r="H61" s="3">
         <v>2632000</v>
       </c>
       <c r="I61" s="3">
+        <v>2632000</v>
+      </c>
+      <c r="J61" s="3">
         <v>2631000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2630000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1146000</v>
       </c>
       <c r="L61" s="3">
         <v>1146000</v>
       </c>
       <c r="M61" s="3">
-        <v>1145000</v>
+        <v>1146000</v>
       </c>
       <c r="N61" s="3">
         <v>1145000</v>
       </c>
       <c r="O61" s="3">
-        <v>1144000</v>
+        <v>1145000</v>
       </c>
       <c r="P61" s="3">
         <v>1144000</v>
@@ -4128,102 +4271,108 @@
         <v>1144000</v>
       </c>
       <c r="R61" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="S61" s="3">
         <v>1542000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1541000</v>
-      </c>
-      <c r="T61" s="3">
-        <v>1540000</v>
       </c>
       <c r="U61" s="3">
         <v>1540000</v>
       </c>
       <c r="V61" s="3">
+        <v>1540000</v>
+      </c>
+      <c r="W61" s="3">
         <v>745000</v>
-      </c>
-      <c r="W61" s="3">
-        <v>744000</v>
       </c>
       <c r="X61" s="3">
         <v>744000</v>
       </c>
       <c r="Y61" s="3">
+        <v>744000</v>
+      </c>
+      <c r="Z61" s="3">
         <v>1492000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2849000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2681000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2634000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2700000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2591000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2526000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2499000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2526000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2518000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2526000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2587000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2628000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2640000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2614000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2567000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2601000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3604000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2523000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1777000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1799000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1847000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1773000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1953000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9188000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8618000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8463000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8436000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8675000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8208000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8050000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8132000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7280000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7201000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6936000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6948000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7651000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7188000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7021000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6983000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7715000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7611000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7531000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6831000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6713000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6361000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5973000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,32 +4988,35 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E72" s="3">
         <v>214000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>194000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>204000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>211000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>56000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>30000</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
@@ -4868,28 +5042,31 @@
         <v>0</v>
       </c>
       <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3">
         <v>-9000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-489000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>40000</v>
       </c>
-      <c r="X72" s="3">
-        <v>0</v>
-      </c>
       <c r="Y72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>838000</v>
+      </c>
+      <c r="E76" s="3">
         <v>882000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>759000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>720000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>685000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>478000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>370000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>284000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>242000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>282000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>536000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>863000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1090000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1230000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1530000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1922000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2276000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2176000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2777000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2768000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2780000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2694000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2789000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E80" s="2">
         <v>44589</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44498</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44407</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44225</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44134</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43945</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43854</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43763</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43672</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43581</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43490</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43399</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43308</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43217</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43126</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43035</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42944</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42853</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42762</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E81" s="3">
         <v>252000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>224000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>202000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>334000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>182000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>137000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>77000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>196000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>277000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>243000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>103000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>396000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>249000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>241000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>283000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>290000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-479000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>174000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>131000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>190000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>146000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5426,70 +5625,73 @@
         <v>51000</v>
       </c>
       <c r="E83" s="3">
-        <v>46000</v>
+        <v>51000</v>
       </c>
       <c r="F83" s="3">
         <v>46000</v>
       </c>
       <c r="G83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="H83" s="3">
         <v>48000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>54000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>56000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>49000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>47000</v>
       </c>
       <c r="L83" s="3">
         <v>47000</v>
       </c>
       <c r="M83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="N83" s="3">
         <v>50000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>49000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>48000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>51000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>49000</v>
       </c>
       <c r="R83" s="3">
         <v>49000</v>
       </c>
       <c r="S83" s="3">
-        <v>48000</v>
+        <v>49000</v>
       </c>
       <c r="T83" s="3">
         <v>48000</v>
       </c>
       <c r="U83" s="3">
-        <v>51000</v>
+        <v>48000</v>
       </c>
       <c r="V83" s="3">
         <v>51000</v>
       </c>
       <c r="W83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="X83" s="3">
         <v>53000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>56000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E89" s="3">
         <v>260000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>298000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>242000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>559000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>373000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>161000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>240000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>383000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>420000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-53000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>310000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>399000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>451000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>165000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>326000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>494000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>420000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>314000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>250000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>365000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>235000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>158000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-61000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-46000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-51000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-38000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-32000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-40000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-52000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-32000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-36000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-35000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-43000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-64000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-48000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-29000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-36000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-38000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-45000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-396000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-54000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>341000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-311000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>42000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>111000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>178000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>938000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>183000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>140000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>195000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>186000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>120000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-54000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-144000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>57000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-87000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-230000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6261,16 +6495,16 @@
         <v>-111000</v>
       </c>
       <c r="E96" s="3">
-        <v>-112000</v>
+        <v>-111000</v>
       </c>
       <c r="F96" s="3">
         <v>-112000</v>
       </c>
       <c r="G96" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-106000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-107000</v>
       </c>
       <c r="I96" s="3">
         <v>-107000</v>
@@ -6279,52 +6513,55 @@
         <v>-107000</v>
       </c>
       <c r="K96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-105000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-108000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-111000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-115000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-97000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-99000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-102000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-105000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-53000</v>
       </c>
       <c r="T96" s="3">
         <v>-53000</v>
       </c>
       <c r="U96" s="3">
-        <v>-54000</v>
+        <v>-53000</v>
       </c>
       <c r="V96" s="3">
         <v>-54000</v>
       </c>
       <c r="W96" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-51000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-52000</v>
       </c>
       <c r="Y96" s="3">
         <v>-52000</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-52000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6779,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-366000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-190000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-243000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-218000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-180000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-122000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-257000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1003000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-440000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-372000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-545000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-603000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-514000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-688000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-617000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-812000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-636000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-951000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>420000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>181000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-51000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>97000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-154000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-13000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>26000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>43000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-30000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-13000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>8000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-11000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-14000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-11000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>24000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-6000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>19000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-339000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-35000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>721000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>278000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-105000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>975000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-45000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>160000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-422000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>642000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>55000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-89000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-268000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-314000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-33000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-561000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>584000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>507000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>231000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-181000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E7" s="2">
         <v>44680</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44589</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44498</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44407</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44225</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44134</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43945</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43854</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43763</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43672</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43581</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43490</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43399</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43308</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43217</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43126</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43035</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42944</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42853</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42762</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1592000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1680000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1614000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1566000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1458000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1555000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1470000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1416000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1303000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1401000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1404000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1371000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1236000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1592000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1563000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1517000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1474000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1644000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1539000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1415000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1321000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1481000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1404000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>546000</v>
+      </c>
+      <c r="E9" s="3">
         <v>591000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>541000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>507000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>459000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>520000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>495000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>483000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>431000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>460000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>463000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>446000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>420000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>564000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>581000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>543000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>511000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>615000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>583000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>515000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>497000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>568000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>553000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>511000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1046000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1089000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1073000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1059000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>999000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1035000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>975000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>933000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>872000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>941000</v>
       </c>
       <c r="M10" s="3">
         <v>941000</v>
       </c>
       <c r="N10" s="3">
+        <v>941000</v>
+      </c>
+      <c r="O10" s="3">
         <v>925000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>816000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1028000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>982000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>974000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>963000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1029000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>956000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>900000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>824000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>913000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>851000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>829000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,82 +1032,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E12" s="3">
         <v>235000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>220000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>216000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>210000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>221000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>215000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>212000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>233000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>212000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>211000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>209000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>215000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>205000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>203000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>211000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>208000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>203000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>193000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>194000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>193000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>191000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>181000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,62 +1184,65 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E14" s="3">
         <v>9000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>23000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>45000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>27000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>21000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>16000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>19000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1236,13 +1256,16 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>52000</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1337000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1387000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1293000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1272000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1209000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1212000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1234000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1181000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1134000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1136000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1075000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1132000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1222000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1252000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1231000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1220000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1332000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1049000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1199000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1181000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1234000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1221000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1198000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E18" s="3">
         <v>293000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>321000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>294000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>249000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>455000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>258000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>182000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>122000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>267000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>268000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>296000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>104000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>370000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>311000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>286000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>254000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>312000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>490000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>216000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>140000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>247000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>183000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,156 +1549,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4000</v>
       </c>
       <c r="F20" s="3">
         <v>4000</v>
       </c>
       <c r="G20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H20" s="3">
         <v>6000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>8000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>11000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>22000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>15000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>30000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>28000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>24000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>21000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>32000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>31000</v>
       </c>
       <c r="U20" s="3">
         <v>31000</v>
       </c>
       <c r="V20" s="3">
+        <v>31000</v>
+      </c>
+      <c r="W20" s="3">
         <v>23000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>18000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>14000</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>12000</v>
       </c>
       <c r="Z20" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E21" s="3">
         <v>341000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>376000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>344000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>301000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>503000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>320000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>249000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>171000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>311000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>337000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>361000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>183000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>446000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>386000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>356000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>335000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>391000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>569000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>290000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>209000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>314000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>251000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1673,221 +1713,230 @@
         <v>18000</v>
       </c>
       <c r="E22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F22" s="3">
         <v>19000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>18000</v>
       </c>
       <c r="G22" s="3">
         <v>18000</v>
       </c>
       <c r="H22" s="3">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="I22" s="3">
         <v>19000</v>
       </c>
       <c r="J22" s="3">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="K22" s="3">
         <v>18000</v>
       </c>
       <c r="L22" s="3">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M22" s="3">
         <v>14000</v>
       </c>
       <c r="N22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="O22" s="3">
         <v>12000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>14000</v>
       </c>
       <c r="S22" s="3">
         <v>14000</v>
       </c>
       <c r="T22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="U22" s="3">
         <v>15000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>17000</v>
       </c>
       <c r="V22" s="3">
         <v>17000</v>
       </c>
       <c r="W22" s="3">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="X22" s="3">
         <v>13000</v>
       </c>
       <c r="Y22" s="3">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Z22" s="3">
         <v>12000</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>270000</v>
+      </c>
+      <c r="E23" s="3">
         <v>272000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>306000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>280000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>237000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>436000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>247000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>175000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>104000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>250000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>276000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>299000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>119000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>384000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>319000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>293000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>272000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>328000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>504000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>222000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>145000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>248000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>183000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E24" s="3">
         <v>13000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>54000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>56000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>35000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>102000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>65000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>38000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>54000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>56000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>70000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>52000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-11000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>36000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>127000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>48000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>14000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>58000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>37000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E26" s="3">
         <v>259000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>252000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>224000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>202000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>334000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>182000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>137000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>77000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>196000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>277000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>243000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>103000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>396000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>249000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>241000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>283000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>292000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>377000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>174000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>131000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>190000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>146000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E27" s="3">
         <v>259000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>252000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>224000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>202000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>334000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>182000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>137000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>77000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>196000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>277000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>243000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>103000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>396000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>249000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>241000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>283000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>292000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>377000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>174000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>131000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>190000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>146000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2217,8 +2278,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -2235,14 +2296,14 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="3">
         <v>-2000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-856000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-4000</v>
       </c>
       <c r="F32" s="3">
         <v>-4000</v>
       </c>
       <c r="G32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-6000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-8000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-11000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-22000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-15000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-30000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-24000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-21000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-32000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-31000</v>
       </c>
       <c r="U32" s="3">
         <v>-31000</v>
       </c>
       <c r="V32" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="W32" s="3">
         <v>-23000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-18000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-12000</v>
       </c>
       <c r="Z32" s="3">
         <v>-12000</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>-12000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E33" s="3">
         <v>259000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>252000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>224000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>202000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>334000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>182000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>137000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>77000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>196000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>277000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>243000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>103000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>396000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>249000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>241000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>283000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>290000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-479000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>174000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>131000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>190000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>146000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E35" s="3">
         <v>259000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>252000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>224000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>202000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>334000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>182000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>137000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>77000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>196000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>277000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>243000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>103000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>396000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>249000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>241000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>283000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>290000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-479000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>174000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>131000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>190000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>146000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E38" s="2">
         <v>44680</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44589</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44498</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44407</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44225</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44134</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43945</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43854</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43763</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43672</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43581</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43490</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43399</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43308</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43217</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43126</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43035</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42944</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42853</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42762</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,487 +2921,506 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3288000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4112000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4170000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4509000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4492000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4529000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3808000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3529000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3633000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2658000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2705000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2545000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2967000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2325000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2271000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2359000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2627000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2941000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2974000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3535000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2951000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2444000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2213000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2113000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E42" s="3">
         <v>22000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>31000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>39000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>55000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>67000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>86000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>117000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>140000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>224000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>303000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>442000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>565000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1574000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1778000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1940000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2184000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2450000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2645000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2430000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2370000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2477000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2426000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2244000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>865000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1230000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>799000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>647000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>655000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>945000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>799000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>796000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>604000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>973000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>821000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>780000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>542000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1216000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>872000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>765000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>616000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1047000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>754000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>584000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>518000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>731000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>605000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E44" s="3">
         <v>204000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>167000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>155000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>108000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>114000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>106000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>116000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>136000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>145000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>113000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>111000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>116000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>131000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>100000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>86000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>97000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>122000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>98000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>108000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>143000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>163000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>125000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>386000</v>
+      </c>
+      <c r="E45" s="3">
         <v>377000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>346000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>319000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>321000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>346000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>315000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>263000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>304000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>274000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>276000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>313000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>326000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>364000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>340000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>321000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>329000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>392000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>295000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>363000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>316000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>383000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>277000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>219000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4922000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5945000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5513000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5669000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5631000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6001000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5114000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4821000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4817000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4274000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4218000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4191000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4516000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5610000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5361000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5471000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5853000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6952000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6766000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7020000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6298000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6198000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5646000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5220000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E47" s="3">
         <v>73000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>75000</v>
       </c>
       <c r="F47" s="3">
         <v>75000</v>
       </c>
       <c r="G47" s="3">
+        <v>75000</v>
+      </c>
+      <c r="H47" s="3">
         <v>72000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>71000</v>
       </c>
       <c r="I47" s="3">
         <v>71000</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>68000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>80000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>78000</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>10</v>
@@ -3332,8 +3437,8 @@
       <c r="S47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3353,156 +3458,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>940000</v>
+      </c>
+      <c r="E48" s="3">
         <v>896000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>883000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>812000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>792000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>639000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>851000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>866000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>872000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>864000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>882000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>889000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>896000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>759000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>763000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>770000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>768000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>756000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>741000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>795000</v>
-      </c>
-      <c r="W48" s="3">
-        <v>799000</v>
       </c>
       <c r="X48" s="3">
         <v>799000</v>
       </c>
       <c r="Y48" s="3">
+        <v>799000</v>
+      </c>
+      <c r="Z48" s="3">
         <v>892000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>949000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2999000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2488000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2480000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2137000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2147000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2140000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2149000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2164000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2178000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1822000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1813000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1821000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1832000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1782000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1798000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1811000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1820000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1833000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1845000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1859000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1825000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1815000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1821000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1834000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3766,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>608000</v>
+      </c>
+      <c r="E52" s="3">
         <v>624000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>549000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>529000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>514000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>509000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>501000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>569000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>481000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>482000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>492000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>571000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>567000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>590000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>496000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>499000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>464000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>450000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>435000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>634000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>677000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>681000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>696000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>759000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9544000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10026000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9500000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9222000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9156000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9360000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8686000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8420000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8416000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7522000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7483000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7472000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7811000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8741000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8418000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8551000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8905000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9991000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9787000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10308000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9599000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9493000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9055000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8762000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,82 +4057,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>515000</v>
+      </c>
+      <c r="E57" s="3">
         <v>607000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>432000</v>
       </c>
       <c r="F57" s="3">
         <v>432000</v>
       </c>
       <c r="G57" s="3">
+        <v>432000</v>
+      </c>
+      <c r="H57" s="3">
         <v>368000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>420000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>336000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>367000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>396000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>426000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>381000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>382000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>348000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>542000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>497000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>472000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>425000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>609000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>458000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>379000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>289000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>347000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>258000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4012,14 +4146,14 @@
       <c r="E58" s="3">
         <v>250000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
+      <c r="F58" s="3">
+        <v>250000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -4028,244 +4162,253 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>150000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>522000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>693000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>498000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>430000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>649000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>562000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>648000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>200000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>385000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>632000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1468000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1643000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1249000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1140000</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2810000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3096000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2870000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2763000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2735000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3032000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2714000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2553000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2430000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2668000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2455000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2324000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2397000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2676000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2371000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2190000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2215000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2537000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2458000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2367000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2355000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2526000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2446000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2275000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3575000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3953000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3552000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3195000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3103000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3452000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3050000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2920000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2976000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3616000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3529000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3204000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3175000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3867000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3430000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3310000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2840000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3531000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3548000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4214000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4287000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4122000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3844000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2387000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2386000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2385000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2634000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2633000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>2632000</v>
       </c>
       <c r="I61" s="3">
         <v>2632000</v>
       </c>
       <c r="J61" s="3">
+        <v>2632000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2631000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2630000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1146000</v>
       </c>
       <c r="M61" s="3">
         <v>1146000</v>
       </c>
       <c r="N61" s="3">
-        <v>1145000</v>
+        <v>1146000</v>
       </c>
       <c r="O61" s="3">
         <v>1145000</v>
       </c>
       <c r="P61" s="3">
-        <v>1144000</v>
+        <v>1145000</v>
       </c>
       <c r="Q61" s="3">
         <v>1144000</v>
@@ -4274,105 +4417,111 @@
         <v>1144000</v>
       </c>
       <c r="S61" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="T61" s="3">
         <v>1542000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1541000</v>
-      </c>
-      <c r="U61" s="3">
-        <v>1540000</v>
       </c>
       <c r="V61" s="3">
         <v>1540000</v>
       </c>
       <c r="W61" s="3">
+        <v>1540000</v>
+      </c>
+      <c r="X61" s="3">
         <v>745000</v>
-      </c>
-      <c r="X61" s="3">
-        <v>744000</v>
       </c>
       <c r="Y61" s="3">
         <v>744000</v>
       </c>
       <c r="Z61" s="3">
+        <v>744000</v>
+      </c>
+      <c r="AA61" s="3">
         <v>1492000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2925000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2849000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2681000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2634000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2700000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2591000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2526000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2499000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2526000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2518000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2526000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2587000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2628000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2640000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2614000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2567000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2601000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3604000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2523000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1777000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1799000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1847000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1773000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1953000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8887000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9188000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8618000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8463000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8436000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8675000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8208000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8050000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8132000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7280000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7201000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6936000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6948000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7651000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7188000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7021000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6983000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7715000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7611000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7531000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6831000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6713000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6361000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5973000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,35 +5162,38 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
         <v>122000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>214000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>194000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>204000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>211000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>56000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>30000</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
       <c r="L72" s="3">
         <v>0</v>
       </c>
@@ -5045,28 +5219,31 @@
         <v>0</v>
       </c>
       <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
         <v>-9000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-489000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>10000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>40000</v>
       </c>
-      <c r="Y72" s="3">
-        <v>0</v>
-      </c>
       <c r="Z72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>657000</v>
+      </c>
+      <c r="E76" s="3">
         <v>838000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>882000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>759000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>720000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>685000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>478000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>370000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>284000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>242000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>282000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>536000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>863000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1090000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1230000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1530000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1922000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2276000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2176000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2777000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2768000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2780000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2694000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2789000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E80" s="2">
         <v>44680</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44589</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44498</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44407</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44225</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44134</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43945</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43854</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43763</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43672</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43581</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43490</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43399</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43308</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43217</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43126</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43035</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42944</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42853</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42762</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E81" s="3">
         <v>259000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>252000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>224000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>202000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>334000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>182000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>137000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>77000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>196000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>277000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>243000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>103000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>396000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>249000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>241000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>283000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>290000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-479000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>174000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>131000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>190000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>146000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +5814,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>51000</v>
+        <v>58000</v>
       </c>
       <c r="E83" s="3">
         <v>51000</v>
       </c>
       <c r="F83" s="3">
-        <v>46000</v>
+        <v>51000</v>
       </c>
       <c r="G83" s="3">
         <v>46000</v>
       </c>
       <c r="H83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="I83" s="3">
         <v>48000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>54000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>56000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>49000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>47000</v>
       </c>
       <c r="M83" s="3">
         <v>47000</v>
       </c>
       <c r="N83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="O83" s="3">
         <v>50000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>49000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>48000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>51000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>49000</v>
       </c>
       <c r="S83" s="3">
         <v>49000</v>
       </c>
       <c r="T83" s="3">
-        <v>48000</v>
+        <v>49000</v>
       </c>
       <c r="U83" s="3">
         <v>48000</v>
       </c>
       <c r="V83" s="3">
-        <v>51000</v>
+        <v>48000</v>
       </c>
       <c r="W83" s="3">
         <v>51000</v>
       </c>
       <c r="X83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="Y83" s="3">
         <v>53000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>56000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E89" s="3">
         <v>411000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>260000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>298000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>242000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>559000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>373000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>161000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>240000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>383000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>420000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-53000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>310000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>399000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>451000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>165000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>326000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>494000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>420000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>314000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>250000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>365000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>235000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>158000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-68000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-61000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-46000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-51000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-38000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-32000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-40000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-52000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-36000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-31000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-43000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-64000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-48000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-29000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-36000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-45000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-628000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-80000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-396000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>341000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-311000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>42000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>111000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>178000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>938000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>183000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>140000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>195000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>186000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>120000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-54000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-144000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>57000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-87000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-230000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,28 +6719,29 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-111000</v>
+        <v>-110000</v>
       </c>
       <c r="E96" s="3">
         <v>-111000</v>
       </c>
       <c r="F96" s="3">
-        <v>-112000</v>
+        <v>-111000</v>
       </c>
       <c r="G96" s="3">
         <v>-112000</v>
       </c>
       <c r="H96" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-106000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-107000</v>
       </c>
       <c r="J96" s="3">
         <v>-107000</v>
@@ -6516,52 +6750,55 @@
         <v>-107000</v>
       </c>
       <c r="L96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-105000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-108000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-111000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-115000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-97000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-99000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-102000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-105000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-53000</v>
       </c>
       <c r="U96" s="3">
         <v>-53000</v>
       </c>
       <c r="V96" s="3">
-        <v>-54000</v>
+        <v>-53000</v>
       </c>
       <c r="W96" s="3">
         <v>-54000</v>
       </c>
       <c r="X96" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-51000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-52000</v>
       </c>
       <c r="Z96" s="3">
         <v>-52000</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-52000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7025,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-459000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-366000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-190000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-243000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-218000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-180000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-122000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-257000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1003000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-440000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-372000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-545000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-603000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-514000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-688000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-617000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-812000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-636000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-951000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>420000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>181000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-51000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>97000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-154000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-23000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-13000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>26000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>43000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-30000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-11000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-14000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-11000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>24000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-6000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>19000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-824000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-58000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-339000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-35000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>721000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>278000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-105000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>975000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-45000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>160000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-422000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>642000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>55000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-89000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-268000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-314000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-33000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-561000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>584000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>507000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>231000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>100000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-181000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,373 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44953</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44862</v>
+      </c>
+      <c r="F7" s="2">
         <v>44771</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44680</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44589</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44498</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44407</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44225</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44134</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43945</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43854</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43763</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43672</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43581</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43490</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43399</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43308</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43217</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43126</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43035</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42944</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42853</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42762</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1526000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1663000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1592000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1680000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1614000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1566000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1458000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1555000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1470000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1416000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1303000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1401000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1404000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1371000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1236000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1592000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1563000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1517000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1474000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1644000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1539000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1415000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1321000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1481000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1404000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>525000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>576000</v>
+      </c>
+      <c r="F9" s="3">
         <v>546000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>591000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>541000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>507000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>459000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>520000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>495000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>483000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>431000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>460000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>463000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>446000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>420000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>564000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>581000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>543000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>511000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>615000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>583000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>515000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>497000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>568000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>553000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>511000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1001000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1087000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1046000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1089000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1073000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1059000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>999000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1035000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>975000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>933000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>872000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>941000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>941000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>925000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>816000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1028000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>982000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>974000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>963000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1029000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>956000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>900000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>824000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>913000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>851000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>829000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,85 +1059,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>243000</v>
+      </c>
+      <c r="F12" s="3">
         <v>240000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>235000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>220000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>216000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>210000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>221000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>215000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>212000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>233000</v>
       </c>
       <c r="M12" s="3">
         <v>212000</v>
       </c>
       <c r="N12" s="3">
+        <v>233000</v>
+      </c>
+      <c r="O12" s="3">
+        <v>212000</v>
+      </c>
+      <c r="P12" s="3">
         <v>211000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>209000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>215000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>205000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>203000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>211000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>208000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>203000</v>
-      </c>
-      <c r="V12" s="3">
-        <v>193000</v>
-      </c>
-      <c r="W12" s="3">
-        <v>194000</v>
       </c>
       <c r="X12" s="3">
         <v>193000</v>
       </c>
       <c r="Y12" s="3">
+        <v>194000</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>193000</v>
+      </c>
+      <c r="AA12" s="3">
         <v>191000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>181000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1187,68 +1221,74 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F14" s="3">
         <v>21000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>6000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>8000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>23000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>45000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>27000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>10000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>21000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>16000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>19000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1259,13 +1299,19 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>52000</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1387,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1419,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1354000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1381000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1337000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1387000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1293000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1272000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1209000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1100000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1212000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1234000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1181000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1134000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1136000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1075000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1132000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1222000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1252000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1231000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1220000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1332000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1049000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1199000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1181000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1234000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1221000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1198000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>282000</v>
+      </c>
+      <c r="F18" s="3">
         <v>255000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>293000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>321000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>294000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>249000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>455000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>258000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>182000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>122000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>267000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>268000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>296000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>104000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>370000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>311000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>286000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>254000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>312000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>490000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>216000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>140000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>247000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>183000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,393 +1616,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>40000</v>
+      </c>
+      <c r="F20" s="3">
         <v>33000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>6000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>8000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>11000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>22000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>15000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>30000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>28000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>24000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>21000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>32000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>31000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>31000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>23000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>18000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>14000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>12000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>381000</v>
+      </c>
+      <c r="F21" s="3">
         <v>346000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>341000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>376000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>344000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>301000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>503000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>320000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>249000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>171000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>311000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>337000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>361000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>183000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>446000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>386000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>356000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>335000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>391000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>569000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>290000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>209000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>314000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>251000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F22" s="3">
         <v>18000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>18000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>19000</v>
       </c>
       <c r="G22" s="3">
         <v>18000</v>
       </c>
       <c r="H22" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I22" s="3">
         <v>18000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K22" s="3">
         <v>19000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>19000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>18000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>18000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>14000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>14000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>12000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>15000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>14000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>16000</v>
       </c>
       <c r="S22" s="3">
         <v>14000</v>
       </c>
       <c r="T22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="U22" s="3">
         <v>14000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="W22" s="3">
         <v>15000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>17000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>17000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>13000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>13000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>12000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>305000</v>
+      </c>
+      <c r="F23" s="3">
         <v>270000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>272000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>306000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>280000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>237000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>436000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>247000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>175000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>104000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>250000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>276000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>299000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>119000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>384000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>319000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>293000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>272000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>328000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>504000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>222000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>145000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>248000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>183000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-445000</v>
+      </c>
+      <c r="F24" s="3">
         <v>56000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>13000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>54000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>56000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>35000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>102000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>65000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>38000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>27000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>54000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>56000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>16000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-12000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>70000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>52000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-11000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>36000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>127000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>48000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>14000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>58000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>37000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2110,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>750000</v>
+      </c>
+      <c r="F26" s="3">
         <v>214000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>259000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>252000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>224000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>202000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>334000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>182000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>137000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>77000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>196000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>277000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>243000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>103000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>396000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>249000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>241000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>283000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>292000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>377000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>174000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>131000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>190000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>146000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>750000</v>
+      </c>
+      <c r="F27" s="3">
         <v>214000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>259000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>252000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>224000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>202000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>334000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>182000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>137000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>77000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>196000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>277000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>243000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>103000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>396000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>249000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>241000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>283000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>292000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>377000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>174000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>131000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>190000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>146000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2359,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2281,11 +2403,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -2299,17 +2421,17 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="3">
         <v>-2000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-856000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>10</v>
@@ -2320,8 +2442,14 @@
       <c r="AA29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2525,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,162 +2608,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-33000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-6000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-8000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-11000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-22000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-15000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-28000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-24000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-21000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-32000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-31000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-31000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-23000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-18000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-12000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>750000</v>
+      </c>
+      <c r="F33" s="3">
         <v>214000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>259000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>252000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>224000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>202000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>334000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>182000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>137000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>77000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>196000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>277000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>243000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>103000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>396000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>249000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>241000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>283000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>290000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-479000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>174000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>131000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>190000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>146000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2857,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>750000</v>
+      </c>
+      <c r="F35" s="3">
         <v>214000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>259000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>252000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>224000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>202000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>334000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>182000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>137000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>77000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>196000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>277000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>243000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>103000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>396000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>249000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>241000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>283000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>290000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-479000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>174000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>131000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>190000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>146000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44953</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44862</v>
+      </c>
+      <c r="F38" s="2">
         <v>44771</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44680</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44589</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44498</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44407</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44225</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44134</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43945</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43854</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43763</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43672</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43581</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43490</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43399</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43308</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43217</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43126</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43035</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42944</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42853</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42762</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +3063,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,511 +3094,549 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2640000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2669000</v>
+      </c>
+      <c r="F41" s="3">
         <v>3288000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4112000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4170000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4509000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4492000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4529000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3808000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3529000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3633000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2658000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2705000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2545000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2967000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2325000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2271000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2359000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2627000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2941000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2974000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>3535000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2951000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>2444000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>2213000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>2113000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>364000</v>
+      </c>
+      <c r="F42" s="3">
         <v>151000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>22000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>31000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>39000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>55000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>67000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>86000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>117000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>140000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>224000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>303000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>442000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>565000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1574000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1778000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1940000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>2184000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>2450000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>2645000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>2430000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>2370000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>2477000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>2426000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>2244000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>821000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>910000</v>
+      </c>
+      <c r="F43" s="3">
         <v>865000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1230000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>799000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>647000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>655000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>945000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>799000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>796000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>604000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>973000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>821000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>780000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>542000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1216000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>872000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>765000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>616000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1047000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>754000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>584000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>518000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>731000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>605000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>244000</v>
+      </c>
+      <c r="F44" s="3">
         <v>232000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>204000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>167000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>155000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>108000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>114000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>106000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>116000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>136000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>145000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>113000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>111000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>116000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>131000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>100000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>86000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>97000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>122000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>98000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>108000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>143000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>163000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>125000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>403000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>416000</v>
+      </c>
+      <c r="F45" s="3">
         <v>386000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>377000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>346000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>319000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>321000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>346000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>315000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>263000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>304000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>274000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>276000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>313000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>326000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>364000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>340000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>321000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>329000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>392000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>295000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>363000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>316000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>383000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>277000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>219000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4540000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4603000</v>
+      </c>
+      <c r="F46" s="3">
         <v>4922000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5945000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5513000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5669000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5631000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6001000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5114000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4821000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4817000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4274000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4218000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4191000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4516000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5610000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>5361000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>5471000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>5853000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>6952000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>6766000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>7020000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>6298000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>6198000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>5646000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>5220000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75000</v>
+        <v>79000</v>
       </c>
       <c r="E47" s="3">
-        <v>73000</v>
+        <v>77000</v>
       </c>
       <c r="F47" s="3">
         <v>75000</v>
       </c>
       <c r="G47" s="3">
+        <v>73000</v>
+      </c>
+      <c r="H47" s="3">
         <v>75000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
+        <v>75000</v>
+      </c>
+      <c r="J47" s="3">
         <v>72000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>71000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>71000</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>68000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>80000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>78000</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>10</v>
@@ -3440,11 +3650,11 @@
       <c r="T47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3461,162 +3671,180 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>956000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>959000</v>
+      </c>
+      <c r="F48" s="3">
         <v>940000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>896000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>883000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>812000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>792000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>639000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>851000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>866000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>872000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>864000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>882000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>889000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>896000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>759000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>763000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>770000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>768000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>756000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>741000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>795000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>799000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>799000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>892000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>949000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2965000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2982000</v>
+      </c>
+      <c r="F49" s="3">
         <v>2999000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2488000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2480000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2137000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2147000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2140000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2149000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2164000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2178000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1822000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1813000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1821000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1832000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1782000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1798000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1811000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1820000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1833000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1845000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1859000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1825000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1815000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>1821000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>1834000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3920,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,85 +4003,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1170000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1159000</v>
+      </c>
+      <c r="F52" s="3">
         <v>608000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>624000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>549000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>529000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>514000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>509000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>501000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>569000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>481000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>482000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>492000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>571000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>567000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>590000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>496000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>499000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>464000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>450000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>435000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>634000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>677000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>681000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>696000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>759000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4169,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9710000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9780000</v>
+      </c>
+      <c r="F54" s="3">
         <v>9544000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>10026000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9500000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9222000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>9156000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9360000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8686000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8420000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8416000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7522000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7483000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7472000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7811000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8741000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>8418000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>8551000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>8905000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>9991000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>9787000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>10308000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>9599000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>9493000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>9055000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>8762000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4287,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,470 +4318,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>432000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>584000</v>
+      </c>
+      <c r="F57" s="3">
         <v>515000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>607000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>432000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>432000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>368000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>420000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>336000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>367000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>396000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>426000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>381000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>382000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>348000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>542000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>497000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>472000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>425000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>609000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>458000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>379000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>289000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>347000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>258000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>250000</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="3">
+        <v>250000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>250000</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>150000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>522000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>693000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>498000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>430000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>649000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>562000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>648000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>200000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>385000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>632000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1468000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1643000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1249000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1140000</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2961000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2811000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2810000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3096000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2870000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2763000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2735000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3032000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2714000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2553000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2430000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2668000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2455000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2324000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2397000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2676000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2371000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2190000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2215000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2537000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2458000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2367000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2355000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2526000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>2446000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>2275000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3393000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3395000</v>
+      </c>
+      <c r="F60" s="3">
         <v>3575000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3953000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3552000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3195000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3103000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3452000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3050000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2920000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2976000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3616000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3529000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3204000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3175000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3867000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3430000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3310000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2840000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3531000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3548000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>4214000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>4287000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>4122000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>3844000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2388000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2387000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>2387000</v>
+      </c>
+      <c r="G61" s="3">
         <v>2386000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2385000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2634000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2633000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2632000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2632000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2631000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2630000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1146000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1146000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1145000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1145000</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>1144000</v>
-      </c>
-      <c r="R61" s="3">
-        <v>1144000</v>
       </c>
       <c r="S61" s="3">
         <v>1144000</v>
       </c>
       <c r="T61" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="U61" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="V61" s="3">
         <v>1542000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1541000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1540000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1540000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>745000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>744000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>744000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>1492000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2827000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2796000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2925000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2849000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2681000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2634000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2700000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2591000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2526000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2499000</v>
       </c>
       <c r="L62" s="3">
         <v>2526000</v>
       </c>
       <c r="M62" s="3">
-        <v>2518000</v>
+        <v>2499000</v>
       </c>
       <c r="N62" s="3">
         <v>2526000</v>
       </c>
       <c r="O62" s="3">
+        <v>2518000</v>
+      </c>
+      <c r="P62" s="3">
+        <v>2526000</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2587000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2628000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2640000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2614000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>2567000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>2601000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>3604000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>2523000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1777000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1799000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1847000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>1773000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>1953000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4895,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4978,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +5061,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8608000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8578000</v>
+      </c>
+      <c r="F66" s="3">
         <v>8887000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9188000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8618000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8463000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8436000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8675000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8208000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8050000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8132000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7280000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7201000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6936000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6948000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7651000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7188000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7021000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6983000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7715000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>7611000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>7531000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>6831000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>6713000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>6361000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>5973000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5179,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5258,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5341,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5424,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,41 +5507,47 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>268000</v>
       </c>
       <c r="E72" s="3">
+        <v>499000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
         <v>122000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>214000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>194000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>204000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>211000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>56000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>30000</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
@@ -5222,28 +5570,34 @@
         <v>0</v>
       </c>
       <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3">
         <v>-9000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-489000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>17000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>10000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>40000</v>
       </c>
-      <c r="Z72" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5673,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5756,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5839,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1102000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1202000</v>
+      </c>
+      <c r="F76" s="3">
         <v>657000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>838000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>882000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>759000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>720000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>685000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>478000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>370000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>284000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>242000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>282000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>536000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>863000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1090000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1230000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1530000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1922000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2276000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2176000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2777000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>2768000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>2780000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>2694000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>2789000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +6005,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44953</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44862</v>
+      </c>
+      <c r="F80" s="2">
         <v>44771</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44680</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44589</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44498</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44407</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44225</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44134</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43945</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43854</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43763</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43672</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43581</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43490</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43399</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43308</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43217</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43126</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43035</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42944</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42853</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42762</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>750000</v>
+      </c>
+      <c r="F81" s="3">
         <v>214000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>259000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>252000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>224000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>202000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>334000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>182000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>137000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>77000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>196000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>277000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>243000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>103000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>396000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>249000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>241000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>283000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>290000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-479000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>174000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>131000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>190000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>146000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,85 +6211,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="F83" s="3">
         <v>58000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>51000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>51000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>46000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>46000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>48000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>54000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>56000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>49000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>47000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>47000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>50000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>49000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>48000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>51000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>49000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>49000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>48000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>48000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>51000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>51000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>53000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>56000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6373,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6456,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6539,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6622,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6705,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>214000</v>
+      </c>
+      <c r="F89" s="3">
         <v>281000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>411000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>260000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>298000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>242000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>559000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>373000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>161000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>240000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>383000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>420000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-53000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>310000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>399000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>451000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>165000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>326000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>494000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>420000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>314000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>250000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>365000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>235000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>158000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6823,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-65000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-68000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-61000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-46000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-51000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-38000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-32000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-40000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-52000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-24000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-36000</v>
       </c>
       <c r="P91" s="3">
         <v>-32000</v>
       </c>
       <c r="Q91" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="S91" s="3">
         <v>-35000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-31000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-43000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-64000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-48000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-32000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-29000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-36000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-45000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6985,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +7068,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-189000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-288000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-628000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-80000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-396000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-31000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-54000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>341000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-10000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-311000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>42000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>111000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>178000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>938000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>183000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>140000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>195000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>186000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>120000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-54000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-144000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>57000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-87000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-230000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,85 +7186,93 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-110000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-111000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-111000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-112000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-112000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-106000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-107000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-107000</v>
       </c>
       <c r="L96" s="3">
         <v>-107000</v>
       </c>
       <c r="M96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-105000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-108000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-111000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-115000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-97000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-99000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-102000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-105000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-53000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-53000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-54000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-54000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-51000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-52000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7348,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7431,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,235 +7514,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-265000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-520000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-459000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-366000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-190000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-243000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-218000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-180000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-122000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-257000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1003000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-440000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-372000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-545000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-603000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-514000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-688000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-617000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-812000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-636000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-951000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>420000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>181000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-51000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>97000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-154000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-18000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-23000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-13000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-5000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>26000</v>
       </c>
       <c r="K101" s="3">
         <v>1000</v>
       </c>
       <c r="L101" s="3">
+        <v>26000</v>
+      </c>
+      <c r="M101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N101" s="3">
         <v>43000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-30000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-13000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>8000</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-14000</v>
       </c>
       <c r="U101" s="3">
         <v>-11000</v>
       </c>
       <c r="V101" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="W101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="X101" s="3">
         <v>24000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-6000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>19000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>4000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-619000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-824000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-58000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-339000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>16000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-35000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>721000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>278000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-105000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>975000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-45000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>160000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-422000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>642000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>55000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-89000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-268000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-314000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-33000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-561000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>584000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>507000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>231000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>100000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-181000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>NTAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,373 +665,398 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45135</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45044</v>
+      </c>
+      <c r="F7" s="2">
         <v>44953</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44862</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44771</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44680</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44589</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44498</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44407</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44225</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44134</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43945</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43854</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43763</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43672</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43581</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43490</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43399</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43308</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43217</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43126</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43035</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42944</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42853</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42762</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1432000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1581000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1526000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1663000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1592000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1680000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1614000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1566000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1458000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1555000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1470000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1416000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1303000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1401000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1404000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1371000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1236000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1592000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1563000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1517000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1474000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1644000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1539000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1415000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1321000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1481000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>1404000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>436000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>506000</v>
+      </c>
+      <c r="F9" s="3">
         <v>525000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>576000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>546000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>591000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>541000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>507000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>459000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>520000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>495000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>483000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>431000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>460000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>463000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>446000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>420000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>564000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>581000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>543000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>511000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>615000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>583000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>515000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>497000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>568000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>553000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>511000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>996000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1075000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1001000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1087000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1046000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1089000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1073000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1059000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>999000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1035000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>975000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>933000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>872000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>941000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>941000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>925000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>816000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1028000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>982000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>974000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>963000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1029000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>956000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>900000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>824000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>913000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>851000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>829000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1061,91 +1086,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>230000</v>
+        <v>247000</v>
       </c>
       <c r="E12" s="3">
         <v>243000</v>
       </c>
       <c r="F12" s="3">
+        <v>230000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>243000</v>
+      </c>
+      <c r="H12" s="3">
         <v>240000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>235000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>220000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>216000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>210000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>221000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>215000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>212000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>233000</v>
       </c>
       <c r="O12" s="3">
         <v>212000</v>
       </c>
       <c r="P12" s="3">
+        <v>233000</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>212000</v>
+      </c>
+      <c r="R12" s="3">
         <v>211000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>209000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>215000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>205000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>203000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>211000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>208000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>203000</v>
-      </c>
-      <c r="X12" s="3">
-        <v>193000</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>194000</v>
       </c>
       <c r="Z12" s="3">
         <v>193000</v>
       </c>
       <c r="AA12" s="3">
+        <v>194000</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>193000</v>
+      </c>
+      <c r="AC12" s="3">
         <v>191000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>181000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1227,74 +1260,80 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F14" s="3">
         <v>90000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>16000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>21000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>9000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>6000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>8000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>23000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>45000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>27000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>10000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>21000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>16000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>19000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
@@ -1305,13 +1344,19 @@
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>52000</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1393,8 +1438,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1421,174 +1472,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1254000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1272000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1354000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1381000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1337000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1387000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1293000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1272000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1209000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1100000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1212000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1234000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1181000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1134000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1136000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1075000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1132000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1222000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1252000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1231000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1220000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1332000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1049000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1199000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1181000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1234000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1221000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>1198000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>309000</v>
+      </c>
+      <c r="F18" s="3">
         <v>172000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>282000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>255000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>293000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>321000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>294000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>249000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>455000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>258000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>182000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>122000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>267000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>268000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>296000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>104000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>370000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>311000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>286000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>254000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>312000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>490000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>216000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>140000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>247000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>183000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1618,174 +1683,188 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E20" s="3">
         <v>21000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>21000</v>
+      </c>
+      <c r="G20" s="3">
         <v>40000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>33000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>8000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>11000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>22000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>15000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>30000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>28000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>24000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>21000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>32000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>31000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>31000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>23000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>18000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>14000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>12000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>266000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>396000</v>
+      </c>
+      <c r="F21" s="3">
         <v>258000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>381000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>346000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>341000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>376000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>344000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>301000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>503000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>320000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>249000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>171000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>311000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>337000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>361000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>183000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>446000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>386000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>356000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>335000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>391000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>569000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>290000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>209000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>314000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>251000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1793,248 +1872,266 @@
         <v>16000</v>
       </c>
       <c r="E22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G22" s="3">
         <v>17000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>18000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>18000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>19000</v>
       </c>
       <c r="I22" s="3">
         <v>18000</v>
       </c>
       <c r="J22" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K22" s="3">
         <v>18000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="M22" s="3">
         <v>19000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>19000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>18000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>18000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>14000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>14000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>12000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>15000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>14000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>16000</v>
       </c>
       <c r="U22" s="3">
         <v>14000</v>
       </c>
       <c r="V22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="W22" s="3">
         <v>14000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>15000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>17000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>17000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>13000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>13000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>12000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>314000</v>
+      </c>
+      <c r="F23" s="3">
         <v>177000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>305000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>270000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>272000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>306000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>280000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>237000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>436000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>247000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>175000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>104000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>250000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>276000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>299000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>119000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>384000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>319000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>293000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>272000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>328000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>504000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>222000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>145000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>248000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>183000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>69000</v>
+      </c>
+      <c r="F24" s="3">
         <v>112000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-445000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>56000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>13000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>54000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>56000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>35000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>102000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>65000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>38000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>27000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>54000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>56000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>16000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-12000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>70000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>52000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-11000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>36000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>127000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>48000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>14000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>58000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>37000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2116,174 +2213,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>245000</v>
+      </c>
+      <c r="F26" s="3">
         <v>65000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>750000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>214000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>259000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>252000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>224000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>202000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>334000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>182000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>137000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>77000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>196000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>277000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>243000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>103000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>396000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>249000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>241000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>283000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>292000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>377000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>174000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>131000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>190000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>146000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>245000</v>
+      </c>
+      <c r="F27" s="3">
         <v>65000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>750000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>214000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>259000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>252000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>224000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>202000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>334000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>182000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>137000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>77000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>196000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>277000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>243000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>103000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>396000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>249000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>241000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>283000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>292000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>377000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>174000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>131000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>190000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>146000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2365,8 +2480,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2409,11 +2530,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -2427,17 +2548,17 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-2000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>-856000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>10</v>
@@ -2448,8 +2569,14 @@
       <c r="AC29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2531,8 +2658,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2614,174 +2747,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-21000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-40000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-33000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-8000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-11000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-15000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-30000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-28000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-24000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-21000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-32000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-31000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-31000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-23000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-18000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-14000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-12000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>245000</v>
+      </c>
+      <c r="F33" s="3">
         <v>65000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>750000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>214000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>259000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>252000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>224000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>202000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>334000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>182000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>137000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>77000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>196000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>277000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>243000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>103000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>396000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>249000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>241000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>283000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>290000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-479000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>174000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>131000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>190000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>146000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2863,179 +3014,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>245000</v>
+      </c>
+      <c r="F35" s="3">
         <v>65000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>750000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>214000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>259000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>252000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>224000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>202000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>334000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>182000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>137000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>77000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>196000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>277000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>243000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>103000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>396000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>249000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>241000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>283000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>290000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-479000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>174000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>131000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>190000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>146000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45135</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45044</v>
+      </c>
+      <c r="F38" s="2">
         <v>44953</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44862</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44771</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44680</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44589</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44498</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44407</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44225</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44134</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43945</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43854</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43763</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43672</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43581</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43490</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43399</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43308</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43217</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43126</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43035</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42944</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42853</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42762</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3065,8 +3234,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3096,553 +3267,591 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2020000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2316000</v>
+      </c>
+      <c r="F41" s="3">
         <v>2640000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2669000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3288000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4112000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4170000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4509000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4492000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4529000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3808000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3529000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3633000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2658000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2705000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2545000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2967000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2325000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2271000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2359000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2627000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2941000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2974000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>3535000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>2951000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>2444000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>2213000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>2113000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>955000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>754000</v>
+      </c>
+      <c r="F42" s="3">
         <v>501000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>364000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>151000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>22000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>31000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>39000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>55000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>67000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>86000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>117000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>140000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>224000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>303000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>442000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>565000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1574000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1778000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1940000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>2184000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>2450000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>2645000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>2430000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>2370000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>2477000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>2426000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>2244000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>653000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>987000</v>
+      </c>
+      <c r="F43" s="3">
         <v>821000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>910000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>865000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1230000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>799000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>647000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>655000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>945000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>799000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>796000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>604000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>973000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>821000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>780000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>542000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1216000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>872000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>765000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>616000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1047000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>754000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>584000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>518000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>731000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>605000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>167000</v>
+      </c>
+      <c r="F44" s="3">
         <v>175000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>244000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>232000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>204000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>167000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>155000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>108000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>114000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>106000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>116000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>136000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>145000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>113000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>111000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>116000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>131000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>100000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>86000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>97000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>122000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>98000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>108000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>143000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>163000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>125000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>401000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>456000</v>
+      </c>
+      <c r="F45" s="3">
         <v>403000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>416000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>386000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>377000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>346000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>319000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>321000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>346000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>315000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>263000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>304000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>274000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>276000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>313000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>326000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>364000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>340000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>321000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>329000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>392000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>295000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>363000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>316000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>383000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>277000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>219000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4160000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4680000</v>
+      </c>
+      <c r="F46" s="3">
         <v>4540000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4603000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4922000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5945000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5513000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5669000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5631000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6001000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5114000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4821000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4817000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4274000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4218000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4191000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4516000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>5610000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>5361000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>5471000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>5853000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>6952000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>6766000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>7020000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>6298000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>6198000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>5646000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>5220000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>80000</v>
+      </c>
+      <c r="F47" s="3">
         <v>79000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>77000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>75000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>73000</v>
       </c>
       <c r="H47" s="3">
         <v>75000</v>
       </c>
       <c r="I47" s="3">
+        <v>73000</v>
+      </c>
+      <c r="J47" s="3">
         <v>75000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
+        <v>75000</v>
+      </c>
+      <c r="L47" s="3">
         <v>72000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>71000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>71000</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>68000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>80000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>78000</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>10</v>
@@ -3656,11 +3865,11 @@
       <c r="V47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3677,174 +3886,192 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>911000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>931000</v>
+      </c>
+      <c r="F48" s="3">
         <v>956000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>959000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>940000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>896000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>883000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>812000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>792000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>639000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>851000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>866000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>872000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>864000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>882000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>889000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>896000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>759000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>763000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>770000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>768000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>756000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>741000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>795000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>799000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>799000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>892000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>949000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2925000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2940000</v>
+      </c>
+      <c r="F49" s="3">
         <v>2965000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2982000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2999000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2488000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2480000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2137000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2147000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2140000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2149000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2164000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2178000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1822000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1813000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1821000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1832000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1782000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1798000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1811000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1820000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1833000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1845000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1859000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>1825000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>1815000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>1821000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>1834000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3926,8 +4153,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4009,91 +4242,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1192000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1187000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1170000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1159000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>608000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>624000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>549000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>529000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>514000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>509000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>501000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>569000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>481000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>482000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>492000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>571000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>567000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>590000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>496000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>499000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>464000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>450000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>435000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>634000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>677000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>681000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>696000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>759000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4175,91 +4420,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9270000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9818000</v>
+      </c>
+      <c r="F54" s="3">
         <v>9710000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9780000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9544000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10026000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>9500000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9222000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>9156000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>9360000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8686000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8420000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8416000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7522000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7483000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7472000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>7811000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>8741000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>8418000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>8551000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>8905000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>9991000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>9787000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>10308000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>9599000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>9493000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>9055000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>8762000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4289,8 +4546,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4320,506 +4579,544 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>344000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>392000</v>
+      </c>
+      <c r="F57" s="3">
         <v>432000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>584000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>515000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>607000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>432000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>432000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>368000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>420000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>336000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>367000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>396000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>426000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>381000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>382000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>348000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>542000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>497000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>472000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>425000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>609000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>458000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>379000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>289000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>347000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>258000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>250000</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>150000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>522000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>693000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>498000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>430000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>649000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>562000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>648000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>200000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>385000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>632000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1468000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1643000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>1249000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>1140000</v>
       </c>
-      <c r="AC58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2905000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3075000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2961000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2811000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2810000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3096000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2870000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2763000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2735000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3032000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2714000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2553000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2430000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2668000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2455000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2324000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2397000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2676000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2371000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2190000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2215000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2537000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2458000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2367000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>2355000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>2526000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>2446000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>2275000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3249000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3467000</v>
+      </c>
+      <c r="F60" s="3">
         <v>3393000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3395000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3575000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3953000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3552000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3195000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3103000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3452000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3050000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2920000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2976000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3616000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3529000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3204000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3175000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3867000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3430000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3310000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2840000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>3531000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>3548000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>4214000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>4287000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>4122000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>3844000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2390000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2389000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2388000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2387000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2387000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2386000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2385000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2634000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2633000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2632000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2632000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2631000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2630000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1146000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1146000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1145000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1145000</v>
-      </c>
-      <c r="S61" s="3">
-        <v>1144000</v>
-      </c>
-      <c r="T61" s="3">
-        <v>1144000</v>
       </c>
       <c r="U61" s="3">
         <v>1144000</v>
       </c>
       <c r="V61" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="W61" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="X61" s="3">
         <v>1542000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1541000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1540000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>1540000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>745000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>744000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>744000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>1492000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2758000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2803000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2827000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2796000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2925000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2849000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2681000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2634000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2700000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2591000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2526000</v>
-      </c>
-      <c r="M62" s="3">
-        <v>2499000</v>
       </c>
       <c r="N62" s="3">
         <v>2526000</v>
       </c>
       <c r="O62" s="3">
-        <v>2518000</v>
+        <v>2499000</v>
       </c>
       <c r="P62" s="3">
         <v>2526000</v>
       </c>
       <c r="Q62" s="3">
+        <v>2518000</v>
+      </c>
+      <c r="R62" s="3">
+        <v>2526000</v>
+      </c>
+      <c r="S62" s="3">
         <v>2587000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2628000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>2640000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>2614000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>2567000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>2601000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>3604000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>2523000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1777000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>1799000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>1847000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>1773000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>1953000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4901,8 +5198,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4984,8 +5287,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5067,91 +5376,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8397000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8659000</v>
+      </c>
+      <c r="F66" s="3">
         <v>8608000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8578000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8887000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9188000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8618000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8463000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8436000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8675000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8208000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8050000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8132000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7280000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7201000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6936000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6948000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7651000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>7188000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7021000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6983000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>7715000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>7611000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>7531000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>6831000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>6713000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>6361000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>5973000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5181,8 +5502,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5264,8 +5587,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5347,8 +5676,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5430,8 +5765,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5513,47 +5854,53 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>265000</v>
+      </c>
+      <c r="F72" s="3">
         <v>268000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>499000</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
         <v>122000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>214000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>194000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>204000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>211000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>56000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>30000</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
       <c r="P72" s="3">
         <v>0</v>
       </c>
@@ -5576,28 +5923,34 @@
         <v>0</v>
       </c>
       <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-9000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-489000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>17000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>10000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>40000</v>
       </c>
-      <c r="AB72" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5679,8 +6032,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5762,8 +6121,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5845,91 +6210,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>873000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1159000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1102000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1202000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>657000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>838000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>882000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>759000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>720000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>685000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>478000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>370000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>284000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>242000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>282000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>536000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>863000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1090000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1230000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1530000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1922000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2276000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>2176000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>2777000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>2768000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>2780000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>2694000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>2789000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6011,179 +6388,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45135</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45044</v>
+      </c>
+      <c r="F80" s="2">
         <v>44953</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44862</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44771</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44680</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44589</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44498</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44407</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44225</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44134</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43945</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43854</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43763</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43672</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43581</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43490</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43399</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43308</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43217</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43126</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43035</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42944</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42853</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42762</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>245000</v>
+      </c>
+      <c r="F81" s="3">
         <v>65000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>750000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>214000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>259000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>252000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>224000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>202000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>334000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>182000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>137000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>77000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>196000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>277000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>243000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>103000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>396000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>249000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>241000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>283000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>290000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-479000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>174000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>131000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>190000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>146000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>109000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6213,91 +6608,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>66000</v>
+      </c>
+      <c r="F83" s="3">
         <v>65000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>59000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>58000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>51000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>51000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>46000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>46000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>48000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>54000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>56000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>49000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>47000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>47000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>50000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>49000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>48000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>51000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>49000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>49000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>48000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>48000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>51000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>51000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>53000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>56000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6379,8 +6782,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6462,8 +6871,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6545,8 +6960,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6628,8 +7049,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6711,91 +7138,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>453000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>235000</v>
+      </c>
+      <c r="F89" s="3">
         <v>377000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>214000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>281000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>411000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>260000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>298000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>242000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>559000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>373000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>161000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>240000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>383000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>420000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-53000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>310000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>399000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>451000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>165000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>326000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>494000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>420000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>314000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>250000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>365000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>235000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>158000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6825,91 +7264,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-58000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-77000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-65000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-68000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-61000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-46000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-51000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-38000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-32000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-40000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-52000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-24000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-36000</v>
       </c>
       <c r="R91" s="3">
         <v>-32000</v>
       </c>
       <c r="S91" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="U91" s="3">
         <v>-35000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-31000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-43000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-64000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-48000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-32000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-29000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-36000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-38000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-45000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6991,8 +7438,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7074,91 +7527,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-228000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-285000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-189000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-288000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-628000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-80000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-396000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-31000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-54000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>341000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-10000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-311000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>42000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>111000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>178000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>938000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>183000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>140000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>195000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>186000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>120000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-54000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-144000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>57000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-87000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-230000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-179000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7188,91 +7653,99 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-108000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-108000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-110000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-111000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-111000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-112000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-112000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-106000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-107000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-107000</v>
       </c>
       <c r="N96" s="3">
         <v>-107000</v>
       </c>
       <c r="O96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-105000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-108000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-111000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-115000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-97000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-99000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-102000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-105000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-53000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-53000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-54000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-54000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-51000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-52000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AE96" s="3">
         <v>-52000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7354,8 +7827,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7437,8 +7916,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7520,253 +8005,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-521000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-265000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-520000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-459000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-366000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-190000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-243000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-218000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-180000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-122000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-257000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1003000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-440000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-372000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-545000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-603000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-514000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-688000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-617000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-812000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-636000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-951000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>420000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>181000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-51000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>97000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-154000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F101" s="3">
         <v>47000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-25000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-18000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-23000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-13000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-5000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>26000</v>
       </c>
       <c r="M101" s="3">
         <v>1000</v>
       </c>
       <c r="N101" s="3">
+        <v>26000</v>
+      </c>
+      <c r="O101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P101" s="3">
         <v>43000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-30000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-13000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>8000</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="V101" s="3">
-        <v>-14000</v>
       </c>
       <c r="W101" s="3">
         <v>-11000</v>
       </c>
       <c r="X101" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="Z101" s="3">
         <v>24000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>19000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>4000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-296000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-324000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-30000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-619000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-824000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-58000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-339000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>16000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-35000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>721000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>278000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-105000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>975000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-45000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>160000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-422000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>642000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>55000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-89000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-268000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-314000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-33000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-561000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>584000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>507000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>231000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>100000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-181000</v>
       </c>
     </row>
